--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramae\OneDrive\바탕 화면\기말고사\1학년\2학기\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramae\taemgit\Git20230925\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{206FE1E2-5CC2-43B3-A283-DE204E593312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65E2D1-D85B-46F3-A9F0-B8C5225D7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9432" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{652A8C2A-7F9B-4019-94BA-83C3A0987B3E}"/>
+    <workbookView minimized="1" xWindow="-144" yWindow="324" windowWidth="14712" windowHeight="11472" xr2:uid="{652A8C2A-7F9B-4019-94BA-83C3A0987B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>휴학 신청은 했니~'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"하.. 알겠다고요.."</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,19 +115,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[알람 소리]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[띠링]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"헉!!"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"지각이다!!!!"</t>
+    <t>'딸~ 자퇴신청은 했니~'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(응? 내가 언제 잠들었었지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(게임 내용이 재미가 없었나보다ㅎㅎ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(근데 무슨 소리가 들리는 거같은데..)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(설마 침입자??!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(슬쩍.. 눈 떠볼까..?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"일어났니?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"뭐야!! 넌 누구야!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밍밍디 요정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room1Gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>침입?자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"난 밍밍디 요정이야"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"반응이 왜그래!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"난 널 도울 요정이라고!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너가 뭘 돕겠다는 거야"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너의 인생"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"???"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room2Gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"앞으로 살아가면서"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"수많은 선택을 하며 살게 될거야"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"지금도 선택의 기로에 놓여있지 않아?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"내가 도와줄게"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이게 무슨소리야.."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"방금 처음 본 널 뭘 믿고…"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"우리 처음 아니야!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기억 못하는 구나?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이건 중요치 않고!!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"바로 설명해줄게!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어어어???"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"여긴 또 어디야!!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"..? 그래서 뭐하는 사람?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아니.. 사람이 아닌가..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네가 앞으로 어떻게 하면 되는지"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"시간이 별로 없어!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"한번만 설명 할 거니까 잘 들어"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"넌 앞으로 수 많은 사람을 만날거야"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"사람을 만날 때마다 또 수많은 '퍼즐'을 풀게 되겠지"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"난 네가 그'퍼즐'을 두려워하지 않았으면 좋겠어"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그 '퍼즐'을 풀어 갈 수록 특별한 경험을 하게 될거야"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나와의 '퍼즐'을 먼저 풀어볼까?"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ㅁ..뭔소리야"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,16 +683,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063FF04-4D74-4434-BBE5-1403F5DDD3F9}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="63.8984375" customWidth="1"/>
     <col min="5" max="5" width="13.69921875" customWidth="1"/>
     <col min="6" max="6" width="16.19921875" customWidth="1"/>
@@ -571,10 +743,12 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -591,10 +765,12 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -611,10 +787,12 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -631,10 +809,12 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -651,10 +831,12 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -671,10 +853,12 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -691,10 +875,12 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -711,10 +897,12 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -731,10 +919,12 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -751,14 +941,18 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
@@ -768,15 +962,17 @@
         <v>0</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
@@ -787,14 +983,18 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
@@ -805,14 +1005,18 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
@@ -822,13 +1026,19 @@
         <v>0</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
@@ -838,13 +1048,19 @@
         <v>0</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
@@ -854,27 +1070,41 @@
         <v>0</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2">
+        <v>101</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
@@ -882,41 +1112,67 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2">
+        <v>101</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="2">
+        <v>101</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
@@ -924,13 +1180,19 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
@@ -938,13 +1200,515 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="2">
+        <v>102</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2">
+        <v>101</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="2">
+        <v>103</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2">
+        <v>103</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="2">
+        <v>103</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="2">
+        <v>103</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="2">
+        <v>101</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2">
+        <v>101</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="2">
+        <v>104</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="2">
+        <v>104</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="2">
+        <v>104</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="2">
+        <v>101</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="2">
+        <v>103</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2">
+        <v>103</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="2">
+        <v>103</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="2">
+        <v>103</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="2">
+        <v>103</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="2">
+        <v>103</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwlr\OneDrive\바탕 화면\Unity\hihiproject\HeeHeeMotGa\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwlr\OneDrive\바탕 화면\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D43A1A-561D-4D6A-8A5E-7A3E7746B4D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828FC885-3C30-4D3F-89F2-21057B9D4411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
   <si>
     <t>tweenType</t>
   </si>
@@ -300,6 +300,10 @@
   </si>
   <si>
     <t>BackGround/Gray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge_Test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,9 +374,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,8 +653,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1403,7 +1404,7 @@
       <c r="B25" s="1">
         <v>0</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2201,7 +2202,7 @@
         <v>-100</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwlr\OneDrive\바탕 화면\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828FC885-3C30-4D3F-89F2-21057B9D4411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B9449-BF70-463E-BF3F-676D6D4726FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="450" windowWidth="22260" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="100">
   <si>
     <t>tweenType</t>
   </si>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"그 '퍼즐'을 풀어 갈 수록 특별한 경험을 하게 될거야"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"난 네가 그'퍼즐'을 두려워하지 않았으면 좋겠어"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -304,6 +300,114 @@
   </si>
   <si>
     <t>Merge_Test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"잘하네!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼 다른 사람들과의 '퍼즐' 또한 잘 풀어 나갈 수 있을 거야"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어떤 사람을 만날지 생각은 해봤어?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"글쎄.. "</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아직까지도 누굴 만나고 싶다는 생각은 안 드는 걸"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그래도 살면서 연애는 해볼 거 아니야?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"으응..?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"내가 그럴 수 있을 까"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"당연히 할 수 있지!!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"내가 도와준다고 했잖아"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"만약에 게임 알아?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"만약에 …"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"세 명의 남자들 중에 한 명을 골라야 한다면"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오~! 연상이 취향이구나?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"든든한 연상 좋지.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오랫동안 함께해온 친구!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"좋지~"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그 누구보다 너를 가장 잘 알거야"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그 누구보다 너를 생각하고 있을 거야"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"연하가 취향이야?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"겉으로는 츤츤거려도"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그 누구보다 너를 챙겨줄 거야"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오늘 나와 함께한 시간 잊지말고"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그 '퍼즐'을 풀어 갈수록 특별한 경험을 하게 될 거야"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/Room2blur</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나는 언제나 너의 마음속에서 살아가고 있어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"항상 응원할게"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -651,10 +755,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -716,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -746,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -776,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -806,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -836,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -866,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -896,7 +1000,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -926,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -956,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -986,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1014,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1044,7 +1148,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1074,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1104,7 +1208,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1134,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1163,8 +1267,8 @@
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
+      <c r="F17" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1187,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1220,13 +1324,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1249,16 +1353,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1281,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1320,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1347,10 +1451,10 @@
         <v>31</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1373,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1405,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1443,7 +1547,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1466,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1504,7 +1608,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1533,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1556,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1588,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1620,16 +1724,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1652,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1690,7 +1794,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1719,7 +1823,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1742,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1774,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1812,7 +1916,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1835,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1867,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -1899,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -1937,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -1966,7 +2070,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -1989,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2021,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2053,16 +2157,16 @@
         <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2085,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2117,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2149,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2181,16 +2285,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2202,21 +2306,797 @@
         <v>-100</v>
       </c>
       <c r="J50" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="3"/>
+      <c r="E51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>50</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>51</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G53" s="1"/>
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>52</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>53</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>54</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>55</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>56</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>57</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>58</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>59</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>60</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>61</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>63</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>64</v>
+      </c>
+      <c r="I65" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>71</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>66</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>67</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>71</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>69</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>70</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>71</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>72</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>73</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245B9449-BF70-463E-BF3F-676D6D4726FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB0F94A-6F4E-4809-B598-5C5778FB734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="450" windowWidth="22260" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="300" windowWidth="16065" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"딸~ 자퇴신청은 했니~"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"하.. 알겠다고요.."</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,10 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"하… 스트레스 받는데 게임이나 해볼까"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"이건 새로 나온 게임인가?"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,10 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(게임 내용이 재미가 없었나보다 ㅎㅎ)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(근데 무슨 소리가 들리는 거같은데..)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -203,10 +191,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"바로 설명해줄게!"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>어어어???</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -408,6 +392,22 @@
   </si>
   <si>
     <t>"항상 응원할게"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"딸~ 자퇴 신청은 했니~"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"하… 스트레스받는데 게임이나 해볼까"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(게임 내용이 재미가 없었나봐 ㅎㅎ)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"바로 설명해 줄게!"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +758,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -844,13 +844,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -874,13 +874,13 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -904,13 +904,13 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -934,13 +934,13 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -964,13 +964,13 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -994,13 +994,13 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -1024,13 +1024,13 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1054,13 +1054,13 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1084,13 +1084,13 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1142,13 +1142,13 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1172,13 +1172,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1202,13 +1202,13 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1232,13 +1232,13 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1262,13 +1262,13 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1324,13 +1324,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1353,16 +1353,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1418,13 +1418,13 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1448,13 +1448,13 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1509,16 +1509,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1541,13 +1541,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1602,13 +1602,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1724,16 +1724,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1756,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1788,13 +1788,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1817,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1878,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1910,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2003,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2035,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2093,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2157,16 +2157,16 @@
         <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2189,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2221,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2253,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2285,16 +2285,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2306,7 +2306,7 @@
         <v>-100</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2317,16 +2317,16 @@
         <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F51" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2349,16 +2349,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F52" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2381,16 +2381,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2413,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2471,16 +2471,16 @@
         <v>0</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2503,13 +2503,13 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2533,13 +2533,13 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2562,16 +2562,16 @@
         <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2594,16 +2594,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2626,16 +2626,16 @@
         <v>0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2658,16 +2658,16 @@
         <v>0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F64" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2786,16 +2786,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2818,16 +2818,16 @@
         <v>0</v>
       </c>
       <c r="C67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F67" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2850,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2914,16 +2914,16 @@
         <v>0</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -2946,16 +2946,16 @@
         <v>0</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>0</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -3010,16 +3010,16 @@
         <v>0</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -3042,16 +3042,16 @@
         <v>0</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB0F94A-6F4E-4809-B598-5C5778FB734E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A53B26-2171-4D2E-9D16-432412293F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="300" windowWidth="16065" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="99">
   <si>
     <t>tweenType</t>
   </si>
@@ -255,10 +255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Character103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BackGround/Room1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -395,10 +391,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"딸~ 자퇴 신청은 했니~"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"하… 스트레스받는데 게임이나 해볼까"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -408,6 +400,10 @@
   </si>
   <si>
     <t>"바로 설명해 줄게!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'딸~ 자퇴 신청은 했니~'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +474,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,8 +756,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -820,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -843,14 +842,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="3" t="s">
-        <v>96</v>
+      <c r="D3" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -880,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -910,7 +909,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -940,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -970,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1000,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -1024,13 +1023,13 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1060,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1090,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1118,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1148,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1172,13 +1171,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1208,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1238,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1268,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1300,7 +1299,7 @@
         <v>57</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1330,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1362,7 +1361,7 @@
         <v>57</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1394,7 +1393,7 @@
         <v>57</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1424,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1454,7 +1453,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1486,7 +1485,7 @@
         <v>58</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1518,7 +1517,7 @@
         <v>58</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1547,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1579,7 +1578,7 @@
         <v>57</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1608,7 +1607,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1637,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1669,7 +1668,7 @@
         <v>59</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1701,7 +1700,7 @@
         <v>59</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1733,7 +1732,7 @@
         <v>59</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1765,7 +1764,7 @@
         <v>59</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1794,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1823,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1855,7 +1854,7 @@
         <v>57</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1887,7 +1886,7 @@
         <v>57</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1916,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1948,7 +1947,7 @@
         <v>60</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1980,7 +1979,7 @@
         <v>60</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2006,13 +2005,13 @@
         <v>56</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2041,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -2070,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2102,7 +2101,7 @@
         <v>57</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2134,7 +2133,7 @@
         <v>59</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2166,7 +2165,7 @@
         <v>59</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2198,7 +2197,7 @@
         <v>59</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2224,13 +2223,13 @@
         <v>56</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2262,7 +2261,7 @@
         <v>59</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2291,10 +2290,10 @@
         <v>54</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2306,7 +2305,7 @@
         <v>-100</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2320,13 +2319,13 @@
         <v>56</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2352,13 +2351,13 @@
         <v>56</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2384,13 +2383,13 @@
         <v>56</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2413,13 +2412,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2442,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2474,13 +2473,13 @@
         <v>56</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2503,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2533,13 +2532,13 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2565,13 +2564,13 @@
         <v>56</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2597,13 +2596,13 @@
         <v>56</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2629,13 +2628,13 @@
         <v>56</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2661,13 +2660,13 @@
         <v>56</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2693,13 +2692,13 @@
         <v>56</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2725,13 +2724,13 @@
         <v>56</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2757,13 +2756,13 @@
         <v>56</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2789,13 +2788,13 @@
         <v>56</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2821,13 +2820,13 @@
         <v>56</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2853,13 +2852,13 @@
         <v>56</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2885,13 +2884,13 @@
         <v>56</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2917,13 +2916,13 @@
         <v>56</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -2949,13 +2948,13 @@
         <v>56</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2981,13 +2980,13 @@
         <v>56</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -3013,13 +3012,13 @@
         <v>56</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -3045,13 +3044,13 @@
         <v>56</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>59</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -3077,13 +3076,13 @@
         <v>56</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G75" s="1">
         <v>0</v>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A53B26-2171-4D2E-9D16-432412293F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8EB91B-B362-4E28-8951-97105318F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="300" windowWidth="16065" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="180" windowWidth="22350" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="102">
   <si>
     <t>tweenType</t>
   </si>
@@ -404,6 +404,18 @@
   </si>
   <si>
     <t>'딸~ 자퇴 신청은 했니~'</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"헉!!!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"꿈..인가?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"무슨 꿈이 이렇게 생생해.."</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +766,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3097,6 +3109,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D76" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D77" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D78" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_0926\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8EB91B-B362-4E28-8951-97105318F6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8A89AD-92CC-4241-AED6-7A8BAD8D9F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="180" windowWidth="22350" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="672" windowWidth="14712" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="149">
   <si>
     <t>tweenType</t>
   </si>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(2학년이 된 나는)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(부모님이 계신 프랑스로 유학을 가기로 결정했다)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -416,6 +412,198 @@
   </si>
   <si>
     <t>"무슨 꿈이 이렇게 생생해.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그나저나 몇시야.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"엥.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9시?????????"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나 9시 수업인데???"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"으아아아아아아악"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"헉….헉......"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이거 힘들어서 수업은 듣겠나.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"안녕?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"선배님 안녕하세요~!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다음 수업은 들을 수 있겠다.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아..안녕하.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/MhStart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/HwStart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"안녕.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아까 아침 수업 왜 안 들어왔어?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"늦잠 잤어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 알겠어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오후 수업도 잘들어~"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"응, 너도"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/JhStart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/403</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(퍽)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2학년이 된 나는')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아.. 3학년 선배다..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(헉 눈 마주쳤다!)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뻘쭘하네..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아.. 현우다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(현우.. 아무리 소꿉친구라도 불편해..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그냥 조용히 지나가야지..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아.. 나한테 인사한 게 아니구나..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"으악!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"괜찮으세요?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 전 괜찮아요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"죄송해요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"앞을 안보고 가는 바람에"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 아니에요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"제가 더 주의했어야 했는데.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네. 그럼 이만 가보겠습니다"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ㄴ..네.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나도 이만 수업 들어갈 준비 해야지"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뭔가 기분이 이상한데..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(요상한 꿈 때문인가..)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +659,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,6 +677,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,25 +960,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" customWidth="1"/>
+    <col min="4" max="4" width="57.3984375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="25.09765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -816,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -831,7 +1025,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -846,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -855,13 +1049,13 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -876,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -891,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -906,7 +1100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -914,14 +1108,14 @@
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -936,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -944,14 +1138,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+      <c r="D6" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -966,7 +1160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -974,14 +1168,14 @@
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -996,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1004,14 +1198,14 @@
         <v>0</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -1026,7 +1220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1035,13 +1229,13 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -1056,7 +1250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1065,13 +1259,13 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -1086,7 +1280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1095,13 +1289,13 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -1116,7 +1310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1129,7 +1323,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -1144,7 +1338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1153,13 +1347,13 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -1174,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1183,13 +1377,13 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -1204,7 +1398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1213,13 +1407,13 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -1234,7 +1428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1243,13 +1437,13 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -1264,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1273,13 +1467,13 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1294,7 +1488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1302,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1326,7 +1520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1335,13 +1529,13 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1356,7 +1550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1364,16 +1558,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1388,7 +1582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1396,16 +1590,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1420,7 +1614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1429,13 +1623,13 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1450,7 +1644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1459,13 +1653,13 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1480,7 +1674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1488,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1512,7 +1706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1520,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1544,7 +1738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1552,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1573,7 +1767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1581,16 +1775,16 @@
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1605,7 +1799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1613,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1634,7 +1828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1642,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>
@@ -1663,7 +1857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1671,16 +1865,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -1695,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1703,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -1727,7 +1921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1735,16 +1929,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="1">
         <v>0</v>
@@ -1759,7 +1953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1767,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1">
         <v>0</v>
@@ -1791,7 +1985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1799,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="1">
         <v>0</v>
@@ -1820,7 +2014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1828,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="1">
         <v>0</v>
@@ -1849,7 +2043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1857,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="1">
         <v>0</v>
@@ -1881,7 +2075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1889,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="1">
         <v>0</v>
@@ -1913,7 +2107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1921,13 +2115,13 @@
         <v>0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="1">
         <v>0</v>
@@ -1942,7 +2136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1950,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="1">
         <v>0</v>
@@ -1974,7 +2168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1982,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="1">
         <v>0</v>
@@ -2006,7 +2200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2014,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -2038,7 +2232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2046,13 +2240,13 @@
         <v>0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="1">
         <v>0</v>
@@ -2067,7 +2261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2075,13 +2269,13 @@
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="1">
         <v>0</v>
@@ -2096,7 +2290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2104,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
@@ -2128,7 +2322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2136,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="1">
         <v>0</v>
@@ -2160,7 +2354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2168,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="1">
         <v>0</v>
@@ -2192,7 +2386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2200,16 +2394,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
@@ -2224,7 +2418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2232,16 +2426,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
@@ -2256,7 +2450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2264,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="1">
         <v>0</v>
@@ -2288,7 +2482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2296,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="1">
         <v>0</v>
@@ -2317,10 +2511,10 @@
         <v>-100</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2328,16 +2522,16 @@
         <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
@@ -2352,7 +2546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2360,16 +2554,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
@@ -2384,7 +2578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2392,16 +2586,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="1">
         <v>0</v>
@@ -2416,7 +2610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2424,13 +2618,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="1">
         <v>0</v>
@@ -2445,7 +2639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2453,13 +2647,13 @@
         <v>0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="1">
         <v>0</v>
@@ -2474,7 +2668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2482,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" s="1">
         <v>0</v>
@@ -2506,7 +2700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2514,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="1">
         <v>0</v>
@@ -2535,7 +2729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2544,13 +2738,13 @@
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="1">
         <v>0</v>
@@ -2565,7 +2759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2573,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="1">
         <v>0</v>
@@ -2597,7 +2791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2605,16 +2799,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="1">
         <v>0</v>
@@ -2629,7 +2823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2637,16 +2831,16 @@
         <v>0</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F61" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="1">
         <v>0</v>
@@ -2661,7 +2855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2669,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" s="1">
         <v>0</v>
@@ -2693,7 +2887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2701,16 +2895,16 @@
         <v>0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="1">
         <v>0</v>
@@ -2725,7 +2919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2733,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="1">
         <v>0</v>
@@ -2757,7 +2951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2765,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="1">
         <v>0</v>
@@ -2789,7 +2983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2797,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="1">
         <v>0</v>
@@ -2821,7 +3015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2829,16 +3023,16 @@
         <v>0</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="1">
         <v>0</v>
@@ -2853,7 +3047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2861,16 +3055,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="1">
         <v>0</v>
@@ -2885,7 +3079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2893,16 +3087,16 @@
         <v>0</v>
       </c>
       <c r="C69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="1">
         <v>0</v>
@@ -2917,7 +3111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2925,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="1">
         <v>0</v>
@@ -2949,7 +3143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2957,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" s="1">
         <v>0</v>
@@ -2981,7 +3175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2989,16 +3183,16 @@
         <v>0</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G72" s="1">
         <v>0</v>
@@ -3013,7 +3207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3021,16 +3215,16 @@
         <v>0</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G73" s="1">
         <v>0</v>
@@ -3045,7 +3239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3053,16 +3247,16 @@
         <v>0</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G74" s="1">
         <v>0</v>
@@ -3077,7 +3271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3085,44 +3279,1269 @@
         <v>0</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>74</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>75</v>
+      </c>
+      <c r="I76" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>76</v>
+      </c>
+      <c r="I77" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>77</v>
+      </c>
+      <c r="I78" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>78</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>79</v>
+      </c>
+      <c r="I80" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>80</v>
+      </c>
+      <c r="I81" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>81</v>
+      </c>
+      <c r="I82" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>82</v>
+      </c>
+      <c r="I83" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>83</v>
+      </c>
+      <c r="I84" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>84</v>
+      </c>
+      <c r="I85" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>85</v>
+      </c>
+      <c r="I86" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>86</v>
+      </c>
+      <c r="I87" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>87</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>88</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>89</v>
+      </c>
+      <c r="I90" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>90</v>
+      </c>
+      <c r="I91" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>91</v>
+      </c>
+      <c r="I92" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>92</v>
+      </c>
+      <c r="I93" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>93</v>
+      </c>
+      <c r="I94" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
         <v>94</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G75" s="1">
-        <v>0</v>
-      </c>
-      <c r="H75" s="1">
-        <v>-100</v>
-      </c>
-      <c r="I75" s="1">
-        <v>-100</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D76" s="3" t="s">
+      <c r="I95" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>95</v>
+      </c>
+      <c r="I96" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>96</v>
+      </c>
+      <c r="I97" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>97</v>
+      </c>
+      <c r="I98" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>98</v>
+      </c>
+      <c r="I99" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D77" s="3" t="s">
+      <c r="I100" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D78" s="3" t="s">
+      <c r="I101" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
         <v>101</v>
       </c>
+      <c r="I102" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>102</v>
+      </c>
+      <c r="I103" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>103</v>
+      </c>
+      <c r="I104" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>104</v>
+      </c>
+      <c r="I105" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0</v>
+      </c>
+      <c r="H106" s="1">
+        <v>105</v>
+      </c>
+      <c r="I106" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="H107" s="1">
+        <v>106</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1">
+        <v>107</v>
+      </c>
+      <c r="I108" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0</v>
+      </c>
+      <c r="H109" s="1">
+        <v>108</v>
+      </c>
+      <c r="I109" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>109</v>
+      </c>
+      <c r="I110" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>110</v>
+      </c>
+      <c r="I111" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>111</v>
+      </c>
+      <c r="I112" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>112</v>
+      </c>
+      <c r="I113" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>123</v>
+      </c>
+      <c r="I114" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
+        <v>123</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>124</v>
+      </c>
+      <c r="I115" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
+        <v>124</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I116" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C120" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_0926\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8A89AD-92CC-4241-AED6-7A8BAD8D9F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BF76DC-50F3-42DD-97B1-4B2AEE874643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="672" windowWidth="14712" windowHeight="11472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="180" windowWidth="22350" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="150">
   <si>
     <t>tweenType</t>
   </si>
@@ -604,6 +604,10 @@
   </si>
   <si>
     <t>(요상한 꿈 때문인가..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -962,23 +966,23 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" customWidth="1"/>
-    <col min="4" max="4" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="57.375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.09765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1040,7 +1044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1190,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1250,7 +1254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1458,7 +1462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1520,7 +1524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1582,7 +1586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1644,7 +1648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1799,7 +1803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1828,7 +1832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1857,7 +1861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2136,7 +2140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2261,7 +2265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2322,7 +2326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2386,7 +2390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2418,7 +2422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2450,7 +2454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2482,7 +2486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2546,7 +2550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2578,7 +2582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2610,7 +2614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2639,7 +2643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2668,7 +2672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2759,7 +2763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2791,7 +2795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2855,7 +2859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2919,7 +2923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3047,7 +3051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3175,7 +3179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3207,7 +3211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3239,7 +3243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3390,7 +3394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3564,7 +3568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3593,7 +3597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3770,7 +3774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3799,7 +3803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3828,7 +3832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3857,7 +3861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3886,7 +3890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3918,7 +3922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3948,7 +3952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3980,7 +3984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4010,7 +4014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4042,7 +4046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4074,7 +4078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4164,7 +4168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4194,7 +4198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4226,7 +4230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4256,7 +4260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4288,7 +4292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4441,7 +4445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4462,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="H114" s="1">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I114" s="1">
         <v>-100</v>
@@ -4471,9 +4475,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -4492,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="H115" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I115" s="1">
         <v>-100</v>
@@ -4501,9 +4505,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -4528,19 +4532,19 @@
         <v>-100</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C117" s="7"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C118" s="7"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C119" s="7"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C120" s="7"/>
     </row>
   </sheetData>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_0926\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BF76DC-50F3-42DD-97B1-4B2AEE874643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842DE114-8AC6-4EFE-9060-3CB5D3DE1BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="180" windowWidth="22350" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="155">
   <si>
     <t>tweenType</t>
   </si>
@@ -607,7 +607,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Main</t>
+    <t>BackGround/</t>
+  </si>
+  <si>
+    <t>(드디어 다 끝났다.. 아침부터 너무 힘들었어…)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아 그냥 집가서 할까…)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(강의실에서 과제좀 하다갈까)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(생각해보니 너무 귀찮은거 같기도 하고)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어쩌지)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -964,25 +983,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" customWidth="1"/>
+    <col min="4" max="4" width="57.3984375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="25.09765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1014,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1044,7 +1063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1074,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1104,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1134,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1164,7 +1183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1194,7 +1213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1224,7 +1243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1254,7 +1273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1284,7 +1303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1314,7 +1333,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1342,7 +1361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1372,7 +1391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1402,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1432,7 +1451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1462,7 +1481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1492,7 +1511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1524,7 +1543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1554,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1586,7 +1605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1618,7 +1637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1648,7 +1667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1678,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1710,7 +1729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1742,7 +1761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1771,7 +1790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1803,7 +1822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1832,7 +1851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1861,7 +1880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1893,7 +1912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1925,7 +1944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1957,7 +1976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1989,7 +2008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2018,7 +2037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2047,7 +2066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2079,7 +2098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2111,7 +2130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2140,7 +2159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2172,7 +2191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2204,7 +2223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2236,7 +2255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2265,7 +2284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2294,7 +2313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2326,7 +2345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2358,7 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2390,7 +2409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2422,7 +2441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2454,7 +2473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2486,7 +2505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2518,7 +2537,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2550,7 +2569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2582,7 +2601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2614,7 +2633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2643,7 +2662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2672,7 +2691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2704,7 +2723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2733,7 +2752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2763,7 +2782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2795,7 +2814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2827,7 +2846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2859,7 +2878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2891,7 +2910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2923,7 +2942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2955,7 +2974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2987,7 +3006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3019,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3051,7 +3070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3083,7 +3102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3115,7 +3134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3147,7 +3166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3179,7 +3198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3211,7 +3230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3243,7 +3262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3275,7 +3294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3307,7 +3326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3336,7 +3355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3365,7 +3384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3394,7 +3413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3423,7 +3442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3452,7 +3471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3481,7 +3500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3510,7 +3529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3539,7 +3558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3568,7 +3587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3597,7 +3616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3626,7 +3645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3655,7 +3674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3684,7 +3703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3713,7 +3732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3745,7 +3764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3774,7 +3793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3803,7 +3822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3832,7 +3851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3861,7 +3880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3890,7 +3909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3922,7 +3941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3952,7 +3971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3984,7 +4003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4014,7 +4033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4046,7 +4065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4078,7 +4097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4108,7 +4127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4138,7 +4157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4168,7 +4187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4198,7 +4217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4230,7 +4249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4260,7 +4279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4292,7 +4311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4324,7 +4343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4353,7 +4372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4383,7 +4402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4415,7 +4434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4445,7 +4464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4475,7 +4494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4505,7 +4524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4526,26 +4545,316 @@
         <v>0</v>
       </c>
       <c r="H116" s="1">
-        <v>-100</v>
+        <v>115</v>
       </c>
       <c r="I116" s="1">
         <v>-100</v>
       </c>
       <c r="J116" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>116</v>
+      </c>
+      <c r="I117" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
       <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D118" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>117</v>
+      </c>
+      <c r="I118" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
       <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D119" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
+        <v>118</v>
+      </c>
+      <c r="I119" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
       <c r="C120" s="7"/>
+      <c r="D120" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
+        <v>119</v>
+      </c>
+      <c r="I120" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0</v>
+      </c>
+      <c r="H122" s="1">
+        <v>121</v>
+      </c>
+      <c r="I122" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0</v>
+      </c>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="H124" s="1"/>
+      <c r="J124" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="H125" s="1"/>
+      <c r="J125" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_0926\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842DE114-8AC6-4EFE-9060-3CB5D3DE1BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B6897-5D7B-4625-909C-B1CD73C178A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="230">
   <si>
     <t>tweenType</t>
   </si>
@@ -610,23 +610,322 @@
     <t>BackGround/</t>
   </si>
   <si>
-    <t>(드디어 다 끝났다.. 아침부터 너무 힘들었어…)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아 그냥 집가서 할까…)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(강의실에서 과제좀 하다갈까)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>(어쩌지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(드디어 다 끝났다.. 오늘 너무 힘들었어…)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그래 그래도 이번학기가 끝 인데 과제라도 하고 가야지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아… 강의실에 선배있네)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(역시 그냥 갈걸 그랬나..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(… 조용히 하다 빨리 가자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"과제하다 가려고?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 네 금방 끝내고 갈거에요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"안녕하세요.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이번엔 나 맞지?)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"학교 생활은 괜찮아?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네 ㅎㅎ"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어차피 곧 자퇴해서.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"자퇴를 해?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네 프랑스로 유학 갈거 같아요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼 그쪽에서 쭉 생활하는 건가?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네 아마 그러겠죠?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민혁이 머지1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지로 스킵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 정말? 다행이다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그래? 정해지면 알려줘"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 미안해 혹시 불편했니?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그냥 궁금해서 물어본 건데"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"프랑스.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"유학생활 많이 힘들겠다"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어렸을 때 프랑스에서 생활하다 오기도 했고"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"부모님이랑 함께 생활하는 거라서 문제 없을거에요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민혁이머지2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다른 사람들을 즐겁게 해주고 싶어요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"저와 모두가 즐거운 일을 하고 싶어요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"제가 좋아하는걸 더 즐기고싶어요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"멋지네~"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"선배는.. 어떤 일 하고 싶으세요?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민혁이머지3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"프로그래밍?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"의외네 처음 들어봐"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아트?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"정말? 나 그림 잘 그릴 거 같아?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"사실 난 성우쪽 준비하고 있어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"의외네요.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그래? 내 목소리 좋지않아?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그런가요.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"크게 생각해본적이 없어서.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"들어보니 좋은 거 같기도.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"장난이야 ㅎㅎ"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기획..? 보단"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(예전에 성우쪽으로 관심있다고 하신거 같은데..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시 성우..?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오! 맞아"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시 알고 있었어?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 네 예전에 들어 본 기억이 있어서요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"날 알고 있었구나! 기쁘네"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아..ㅎㅎ 네.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"전 과제를 다 끝내서"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이만 가보겠습니다"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그래 조심히 가"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네..! 수고하세요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(후.. 진땀 뺐네..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(빨리 집에 가서 쉬자…)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다음에 또 보자"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 챕터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그냥 집에가서 끝내야지)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그냥 집에가서 할까…)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>(생각해보니 너무 귀찮은거 같기도 하고)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(어쩌지)</t>
+  </si>
+  <si>
+    <t>"집에 가려고?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아..응"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너는? 남아서 과제 하다 가게?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"응 같이 할래?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아니 나는 먼저 갈게"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그래.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 근데 어머님한테 들었는데"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"자퇴한다는게 진짜야?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 그게 그렇게 됐네.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"정말이었어?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"난 어머님이 또 장난치신 줄 알았어.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현우머지1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 얼마 안남았네"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"얼마 남지 않았네"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -983,10 +1282,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -999,6 +1298,7 @@
     <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.3984375" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -4563,7 +4863,7 @@
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>11</v>
@@ -4593,7 +4893,7 @@
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>11</v>
@@ -4623,7 +4923,7 @@
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="3" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>11</v>
@@ -4653,7 +4953,7 @@
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="3" t="s">
-        <v>153</v>
+        <v>214</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>11</v>
@@ -4682,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>11</v>
@@ -4710,6 +5010,9 @@
       <c r="B122" s="1">
         <v>0</v>
       </c>
+      <c r="D122" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="E122" s="3" t="s">
         <v>11</v>
       </c>
@@ -4733,6 +5036,9 @@
       <c r="A123" s="1">
         <v>121</v>
       </c>
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
       <c r="E123" s="3" t="s">
         <v>11</v>
       </c>
@@ -4742,7 +5048,9 @@
       <c r="G123" s="1">
         <v>0</v>
       </c>
-      <c r="H123" s="1"/>
+      <c r="H123" s="1">
+        <v>122</v>
+      </c>
       <c r="I123" s="1">
         <v>-100</v>
       </c>
@@ -4754,7 +5062,27 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="H124" s="1"/>
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0</v>
+      </c>
+      <c r="H124" s="1">
+        <v>123</v>
+      </c>
+      <c r="I124" s="1">
+        <v>-100</v>
+      </c>
       <c r="J124" s="3" t="s">
         <v>11</v>
       </c>
@@ -4763,7 +5091,27 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="H125" s="1"/>
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>124</v>
+      </c>
+      <c r="I125" s="1">
+        <v>-100</v>
+      </c>
       <c r="J125" s="3" t="s">
         <v>11</v>
       </c>
@@ -4772,6 +5120,27 @@
       <c r="A126" s="1">
         <v>124</v>
       </c>
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G126" s="1">
+        <v>0</v>
+      </c>
+      <c r="H126" s="1">
+        <v>125</v>
+      </c>
+      <c r="I126" s="1">
+        <v>-100</v>
+      </c>
       <c r="J126" s="3" t="s">
         <v>11</v>
       </c>
@@ -4780,80 +5149,1684 @@
       <c r="A127" s="1">
         <v>125</v>
       </c>
+      <c r="B127" s="1">
+        <v>0</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G127" s="1">
+        <v>0</v>
+      </c>
+      <c r="H127" s="1">
+        <v>126</v>
+      </c>
+      <c r="I127" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B128" s="1">
+        <v>0</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G128" s="1">
+        <v>0</v>
+      </c>
+      <c r="H128" s="1">
+        <v>127</v>
+      </c>
+      <c r="I128" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G129" s="1">
+        <v>0</v>
+      </c>
+      <c r="H129" s="1">
+        <v>128</v>
+      </c>
+      <c r="I129" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G130" s="1">
+        <v>0</v>
+      </c>
+      <c r="H130" s="1">
+        <v>129</v>
+      </c>
+      <c r="I130" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B131" s="1">
+        <v>0</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G131" s="1">
+        <v>0</v>
+      </c>
+      <c r="H131" s="1">
+        <v>130</v>
+      </c>
+      <c r="I131" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G132" s="1">
+        <v>0</v>
+      </c>
+      <c r="H132" s="1">
+        <v>131</v>
+      </c>
+      <c r="I132" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B133" s="1">
+        <v>0</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G133" s="1">
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>132</v>
+      </c>
+      <c r="I133" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B134" s="1">
+        <v>0</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
+      <c r="H134" s="1">
+        <v>133</v>
+      </c>
+      <c r="I134" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G135" s="1">
+        <v>0</v>
+      </c>
+      <c r="H135" s="1">
+        <v>134</v>
+      </c>
+      <c r="I135" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G136" s="1">
+        <v>0</v>
+      </c>
+      <c r="H136" s="1">
+        <v>135</v>
+      </c>
+      <c r="I136" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G137" s="1">
+        <v>0</v>
+      </c>
+      <c r="H137" s="1">
+        <v>136</v>
+      </c>
+      <c r="I137" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G138" s="1">
+        <v>0</v>
+      </c>
+      <c r="H138" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I138" s="1">
+        <v>2</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>0</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G139" s="1">
+        <v>0</v>
+      </c>
+      <c r="H139" s="1">
+        <v>138</v>
+      </c>
+      <c r="I139" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B140" s="1">
+        <v>0</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G140" s="1">
+        <v>0</v>
+      </c>
+      <c r="H140" s="1">
+        <v>142</v>
+      </c>
+      <c r="I140" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G141" s="1">
+        <v>0</v>
+      </c>
+      <c r="H141" s="1">
+        <v>142</v>
+      </c>
+      <c r="I141" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>0</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G142" s="1">
+        <v>0</v>
+      </c>
+      <c r="H142" s="1">
+        <v>141</v>
+      </c>
+      <c r="I142" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G143" s="1">
+        <v>0</v>
+      </c>
+      <c r="H143" s="1">
+        <v>142</v>
+      </c>
+      <c r="I143" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>0</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G144" s="1">
+        <v>0</v>
+      </c>
+      <c r="H144" s="1">
+        <v>143</v>
+      </c>
+      <c r="I144" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>0</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G145" s="1">
+        <v>0</v>
+      </c>
+      <c r="H145" s="1">
+        <v>144</v>
+      </c>
+      <c r="I145" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G146" s="1">
+        <v>0</v>
+      </c>
+      <c r="H146" s="1">
+        <v>145</v>
+      </c>
+      <c r="I146" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G147" s="1">
+        <v>0</v>
+      </c>
+      <c r="H147" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I147" s="1">
+        <v>3</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G148" s="1">
+        <v>0</v>
+      </c>
+      <c r="H148" s="1">
+        <v>149</v>
+      </c>
+      <c r="I148" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G149" s="1">
+        <v>0</v>
+      </c>
+      <c r="H149" s="1">
+        <v>149</v>
+      </c>
+      <c r="I149" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+      <c r="H150" s="1">
+        <v>149</v>
+      </c>
+      <c r="I150" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1">
+        <v>150</v>
+      </c>
+      <c r="I151" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G152" s="1">
+        <v>0</v>
+      </c>
+      <c r="H152" s="1">
+        <v>151</v>
+      </c>
+      <c r="I152" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G153" s="1">
+        <v>0</v>
+      </c>
+      <c r="H153" s="7">
+        <v>-100</v>
+      </c>
+      <c r="I153" s="1">
+        <v>4</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G154" s="1">
+        <v>0</v>
+      </c>
+      <c r="H154" s="1">
+        <v>153</v>
+      </c>
+      <c r="I154" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G155" s="1">
+        <v>0</v>
+      </c>
+      <c r="H155" s="1">
+        <v>156</v>
+      </c>
+      <c r="I155" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1">
+        <v>0</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G156" s="1">
+        <v>0</v>
+      </c>
+      <c r="H156" s="1">
+        <v>155</v>
+      </c>
+      <c r="I156" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
+        <v>0</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>156</v>
+      </c>
+      <c r="I157" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="1">
+        <v>157</v>
+      </c>
+      <c r="I158" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G159" s="1">
+        <v>0</v>
+      </c>
+      <c r="H159" s="1">
+        <v>158</v>
+      </c>
+      <c r="I159" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+      <c r="H160" s="1">
+        <v>159</v>
+      </c>
+      <c r="I160" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G161" s="1">
+        <v>0</v>
+      </c>
+      <c r="H161" s="1">
+        <v>160</v>
+      </c>
+      <c r="I161" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>161</v>
+      </c>
+      <c r="I162" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0</v>
+      </c>
+      <c r="H163" s="1">
+        <v>162</v>
+      </c>
+      <c r="I163" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1">
+        <v>171</v>
+      </c>
+      <c r="I164" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
+        <v>164</v>
+      </c>
+      <c r="I165" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0</v>
+      </c>
+      <c r="H166" s="1">
+        <v>165</v>
+      </c>
+      <c r="I166" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G167" s="1">
+        <v>0</v>
+      </c>
+      <c r="H167" s="1">
+        <v>166</v>
+      </c>
+      <c r="I167" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G168" s="1">
+        <v>0</v>
+      </c>
+      <c r="H168" s="1">
+        <v>167</v>
+      </c>
+      <c r="I168" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G169" s="1">
+        <v>0</v>
+      </c>
+      <c r="H169" s="1">
+        <v>168</v>
+      </c>
+      <c r="I169" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G170" s="1">
+        <v>0</v>
+      </c>
+      <c r="H170" s="1">
+        <v>169</v>
+      </c>
+      <c r="I170" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G171" s="1">
+        <v>0</v>
+      </c>
+      <c r="H171" s="1">
+        <v>170</v>
+      </c>
+      <c r="I171" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1">
+        <v>0</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0</v>
+      </c>
+      <c r="H172" s="1">
+        <v>171</v>
+      </c>
+      <c r="I172" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G173" s="1">
+        <v>0</v>
+      </c>
+      <c r="H173" s="1">
+        <v>172</v>
+      </c>
+      <c r="I173" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1">
+        <v>0</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G174" s="1">
+        <v>0</v>
+      </c>
+      <c r="H174" s="1">
+        <v>173</v>
+      </c>
+      <c r="I174" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1">
+        <v>0</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G175" s="1">
+        <v>0</v>
+      </c>
+      <c r="H175" s="1">
+        <v>174</v>
+      </c>
+      <c r="I175" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1">
+        <v>0</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
+      <c r="H176" s="1">
+        <v>175</v>
+      </c>
+      <c r="I176" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1">
+        <v>0</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
+      <c r="H177" s="1">
+        <v>176</v>
+      </c>
+      <c r="I177" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G178" s="1">
+        <v>0</v>
+      </c>
+      <c r="H178" s="1">
+        <v>177</v>
+      </c>
+      <c r="I178" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G179" s="1">
+        <v>0</v>
+      </c>
+      <c r="I179" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1">
+        <v>0</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G180" s="1">
+        <v>0</v>
+      </c>
+      <c r="H180" s="1">
+        <v>179</v>
+      </c>
+      <c r="I180" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G181" s="1">
+        <v>0</v>
+      </c>
+      <c r="H181" s="1">
+        <v>180</v>
+      </c>
+      <c r="I181" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1">
+        <v>0</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G182" s="1">
+        <v>0</v>
+      </c>
+      <c r="H182" s="1">
+        <v>181</v>
+      </c>
+      <c r="I182" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1">
+        <v>0</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G183" s="1">
+        <v>0</v>
+      </c>
+      <c r="H183" s="1">
+        <v>182</v>
+      </c>
+      <c r="I183" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1">
+        <v>0</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G184" s="1">
+        <v>0</v>
+      </c>
+      <c r="H184" s="1">
+        <v>183</v>
+      </c>
+      <c r="I184" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1">
+        <v>0</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G185" s="1">
+        <v>0</v>
+      </c>
+      <c r="H185" s="1">
+        <v>184</v>
+      </c>
+      <c r="I185" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G186" s="1">
+        <v>0</v>
+      </c>
+      <c r="H186" s="1">
+        <v>185</v>
+      </c>
+      <c r="I186" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1">
+        <v>0</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
+      <c r="H187" s="1">
+        <v>186</v>
+      </c>
+      <c r="I187" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1">
+        <v>0</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G188" s="1">
+        <v>0</v>
+      </c>
+      <c r="H188" s="1">
+        <v>187</v>
+      </c>
+      <c r="I188" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G189" s="1">
+        <v>0</v>
+      </c>
+      <c r="H189" s="1">
+        <v>188</v>
+      </c>
+      <c r="I189" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G190" s="1">
+        <v>0</v>
+      </c>
+      <c r="H190" s="1">
+        <v>189</v>
+      </c>
+      <c r="I190" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1">
+        <v>0</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G191" s="1">
+        <v>0</v>
+      </c>
+      <c r="H191" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I191" s="7">
+        <v>5</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_0926\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B6897-5D7B-4625-909C-B1CD73C178A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A26348-2DB2-4806-8F8F-AE37E227A06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="294">
   <si>
     <t>tweenType</t>
   </si>
@@ -607,9 +607,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BackGround/</t>
-  </si>
-  <si>
     <t>(강의실에서 과제좀 하다갈까)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -690,10 +687,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>선택지로 스킵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"아 정말? 다행이다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -858,10 +851,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다음 챕터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(그냥 집에가서 끝내야지)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -926,6 +915,273 @@
   </si>
   <si>
     <t>"얼마 남지 않았네"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 그래?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나중에 말해주고 싶을 때 해줘"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 아니야…"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"프랑스로 가게되면 쭉 거기서 생활하는거야?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"응 그렇지?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼 만나기 더 힘들어지겠네.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어쩔수 없지.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아쉽다"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현우머지2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"내가 재밌는거.. 하면서 살고 싶어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그렇구나 멋있네"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킵 지점</t>
+  </si>
+  <si>
+    <t>스킵 지점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다른 사람들을 즐겁게 해주는 일을 하고 싶어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"좋네 넌 잘 할 수 있을 거 같아"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너도 나도 모두가 즐길 수 있는 일을 하고 싶어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"멋있네"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"응원할게"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"고마워"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너는? 여기에서 하고 싶은 일이 뭐야?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현우머지3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"하하 내가 관심이 있었던건 맞지만 아니야"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"맞아"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"알고 있었네.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기쁘다..ㅎㅎ"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기획은 난 잘 모르겠더라 ㅎㅎ"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그래.. 난 이만 가볼게"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"열심히 해"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너도 조심히 가"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(밥이나 먹고 생각하자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"안녕하세요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 안녕하세요.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시 우리학과.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 네 게임학과에요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아..! 그렇구나"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"신입생이에요?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네 선배님 덕분에요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"선배님 들으려던건 아닌데"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"조교님께 자퇴한다는 말을 언뜻 들어서요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"사실인가요.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"말 편하게 하세요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 응 그럴게"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"하하 내가 한건 없는데.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 맞아.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지환이 머지1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 금방 가시겠네요.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 나중에라도 알려주실 수 있나요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그냥 .. 궁금해서요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"제가 오히려 죄송하죠"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그래도 나중에.. 괜찮다면 알려주세요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"자퇴하시고 무슨일 하시는거에요?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아마 부모님이 계신 프랑스로 갈 거 같아"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 유학 가시는거에요?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"응"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지환이 머지2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"내가 하고 싶은 일, 내가 좋아하는 일 하고 싶어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다른 사람이 즐거워하는 일을 하고 싶어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그냥 우리 모두가 즐거울 수 있는 일 하고 싶어"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"멋있으세요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어떤 일이던 잘 하실 거 같아요"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1282,10 +1538,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K202"/>
+  <dimension ref="A1:K253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4863,13 +5119,13 @@
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F117" s="7" t="s">
-        <v>149</v>
+      <c r="F117" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="G117" s="1">
         <v>0</v>
@@ -4893,14 +5149,12 @@
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="F118" s="7"/>
       <c r="G118" s="1">
         <v>0</v>
       </c>
@@ -4923,14 +5177,12 @@
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F119" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="F119" s="6"/>
       <c r="G119" s="1">
         <v>0</v>
       </c>
@@ -4953,14 +5205,12 @@
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="F120" s="7"/>
       <c r="G120" s="1">
         <v>0</v>
       </c>
@@ -4982,14 +5232,12 @@
         <v>0</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F121" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="F121" s="7"/>
       <c r="G121" s="1">
         <v>0</v>
       </c>
@@ -5011,14 +5259,12 @@
         <v>0</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="F122" s="7"/>
       <c r="G122" s="1">
         <v>0</v>
       </c>
@@ -5042,8 +5288,8 @@
       <c r="E123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F123" s="7" t="s">
-        <v>149</v>
+      <c r="F123" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="G123" s="1">
         <v>0</v>
@@ -5066,14 +5312,12 @@
         <v>0</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="F124" s="6"/>
       <c r="G124" s="1">
         <v>0</v>
       </c>
@@ -5095,14 +5339,12 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F125" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="F125" s="7"/>
       <c r="G125" s="1">
         <v>0</v>
       </c>
@@ -5124,14 +5366,12 @@
         <v>0</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="F126" s="7"/>
       <c r="G126" s="1">
         <v>0</v>
       </c>
@@ -5159,11 +5399,9 @@
         <v>108</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F127" s="7"/>
       <c r="G127" s="1">
         <v>0</v>
       </c>
@@ -5186,11 +5424,9 @@
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="F128" s="7"/>
       <c r="G128" s="1">
         <v>0</v>
       </c>
@@ -5213,11 +5449,9 @@
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="F129" s="7"/>
       <c r="G129" s="1">
         <v>0</v>
       </c>
@@ -5242,7 +5476,7 @@
         <v>110</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G130" s="1">
         <v>0</v>
@@ -5266,7 +5500,7 @@
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G131" s="1">
         <v>0</v>
@@ -5292,7 +5526,7 @@
         <v>110</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G132" s="1">
         <v>0</v>
@@ -5316,7 +5550,7 @@
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G133" s="1">
         <v>0</v>
@@ -5340,7 +5574,7 @@
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G134" s="1">
         <v>0</v>
@@ -5366,7 +5600,7 @@
         <v>110</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G135" s="1">
         <v>0</v>
@@ -5390,7 +5624,7 @@
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G136" s="1">
         <v>0</v>
@@ -5416,7 +5650,7 @@
         <v>110</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G137" s="1">
         <v>0</v>
@@ -5429,6 +5663,9 @@
       </c>
       <c r="J137" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
@@ -5440,7 +5677,7 @@
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G138" s="1">
         <v>0</v>
@@ -5452,11 +5689,9 @@
         <v>2</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K138" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="K138" s="4"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
@@ -5469,7 +5704,7 @@
         <v>110</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G139" s="1">
         <v>0</v>
@@ -5495,7 +5730,7 @@
         <v>110</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G140" s="1">
         <v>0</v>
@@ -5522,7 +5757,7 @@
         <v>110</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G141" s="1">
         <v>0</v>
@@ -5548,7 +5783,7 @@
         <v>110</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G142" s="1">
         <v>0</v>
@@ -5574,7 +5809,7 @@
         <v>110</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G143" s="1">
         <v>0</v>
@@ -5600,7 +5835,7 @@
         <v>110</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G144" s="1">
         <v>0</v>
@@ -5615,7 +5850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5626,7 +5861,7 @@
         <v>110</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G145" s="1">
         <v>0</v>
@@ -5641,7 +5876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5649,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G146" s="1">
         <v>0</v>
@@ -5663,8 +5898,11 @@
       <c r="J146" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K146" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5672,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G147" s="1">
         <v>0</v>
@@ -5684,10 +5922,10 @@
         <v>3</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5695,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G148" s="1">
         <v>0</v>
@@ -5710,7 +5948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5718,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G149" s="1">
         <v>0</v>
@@ -5733,7 +5971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5741,7 +5979,7 @@
         <v>0</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G150" s="1">
         <v>0</v>
@@ -5756,7 +5994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5767,7 +6005,7 @@
         <v>110</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G151" s="1">
         <v>0</v>
@@ -5782,7 +6020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5790,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G152" s="1">
         <v>0</v>
@@ -5804,8 +6042,11 @@
       <c r="J152" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K152" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5828,10 +6069,10 @@
         <v>4</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5842,7 +6083,7 @@
         <v>110</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G154" s="1">
         <v>0</v>
@@ -5857,7 +6098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5868,7 +6109,7 @@
         <v>110</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G155" s="1">
         <v>0</v>
@@ -5883,7 +6124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5894,7 +6135,7 @@
         <v>110</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G156" s="1">
         <v>0</v>
@@ -5909,7 +6150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5920,7 +6161,7 @@
         <v>110</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G157" s="1">
         <v>0</v>
@@ -5935,7 +6176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5946,7 +6187,7 @@
         <v>110</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G158" s="1">
         <v>0</v>
@@ -5961,7 +6202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5969,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G159" s="1">
         <v>0</v>
@@ -5984,7 +6225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5995,7 +6236,7 @@
         <v>110</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G160" s="1">
         <v>0</v>
@@ -6018,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G161" s="1">
         <v>0</v>
@@ -6041,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G162" s="1">
         <v>0</v>
@@ -6064,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G163" s="1">
         <v>0</v>
@@ -6090,7 +6331,7 @@
         <v>110</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G164" s="1">
         <v>0</v>
@@ -6113,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G165" s="1">
         <v>0</v>
@@ -6136,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G166" s="1">
         <v>0</v>
@@ -6159,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G167" s="1">
         <v>0</v>
@@ -6185,7 +6426,7 @@
         <v>110</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G168" s="1">
         <v>0</v>
@@ -6211,7 +6452,7 @@
         <v>110</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G169" s="1">
         <v>0</v>
@@ -6234,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G170" s="1">
         <v>0</v>
@@ -6260,7 +6501,7 @@
         <v>110</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G171" s="1">
         <v>0</v>
@@ -6283,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G172" s="1">
         <v>0</v>
@@ -6306,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G173" s="1">
         <v>0</v>
@@ -6329,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G174" s="1">
         <v>0</v>
@@ -6355,7 +6596,7 @@
         <v>110</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G175" s="1">
         <v>0</v>
@@ -6381,7 +6622,7 @@
         <v>110</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G176" s="1">
         <v>0</v>
@@ -6396,7 +6637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6404,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G177" s="1">
         <v>0</v>
@@ -6419,7 +6660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6427,7 +6668,10 @@
         <v>0</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G178" s="1">
         <v>0</v>
@@ -6442,7 +6686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6450,7 +6694,10 @@
         <v>0</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G179" s="1">
         <v>0</v>
@@ -6459,10 +6706,10 @@
         <v>-100</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6470,7 +6717,13 @@
         <v>0</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="G180" s="1">
         <v>0</v>
@@ -6485,15 +6738,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" s="1">
         <v>0</v>
       </c>
+      <c r="C181" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D181" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G181" s="1">
         <v>0</v>
@@ -6508,7 +6764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6516,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G182" s="1">
         <v>0</v>
@@ -6531,7 +6787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6539,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G183" s="1">
         <v>0</v>
@@ -6554,15 +6810,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" s="1">
         <v>0</v>
       </c>
+      <c r="C184" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D184" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G184" s="1">
         <v>0</v>
@@ -6577,7 +6836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6585,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G185" s="1">
         <v>0</v>
@@ -6600,15 +6859,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" s="1">
         <v>0</v>
       </c>
+      <c r="C186" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D186" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G186" s="1">
         <v>0</v>
@@ -6623,15 +6885,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="1">
         <v>0</v>
       </c>
+      <c r="C187" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D187" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G187" s="1">
         <v>0</v>
@@ -6646,15 +6911,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
       </c>
+      <c r="C188" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D188" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G188" s="1">
         <v>0</v>
@@ -6669,7 +6937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6677,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G189" s="1">
         <v>0</v>
@@ -6692,15 +6960,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" s="1">
         <v>0</v>
       </c>
+      <c r="C190" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D190" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G190" s="1">
         <v>0</v>
@@ -6714,16 +6985,22 @@
       <c r="J190" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K190" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="1">
         <v>0</v>
       </c>
+      <c r="C191" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D191" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G191" s="1">
         <v>0</v>
@@ -6735,98 +7012,1400 @@
         <v>5</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" s="1">
         <v>0</v>
       </c>
+      <c r="C192" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="D192" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0</v>
+      </c>
+      <c r="H192" s="1">
+        <v>194</v>
+      </c>
+      <c r="I192" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C193" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G193" s="1">
+        <v>0</v>
+      </c>
+      <c r="H193" s="1">
+        <v>194</v>
+      </c>
+      <c r="I193" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C194" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G194" s="1">
+        <v>0</v>
+      </c>
+      <c r="H194" s="1">
+        <v>193</v>
+      </c>
+      <c r="I194" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C195" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G195" s="1">
+        <v>0</v>
+      </c>
+      <c r="H195" s="1">
+        <v>194</v>
+      </c>
+      <c r="I195" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C196" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G196" s="1">
+        <v>0</v>
+      </c>
+      <c r="H196" s="1">
+        <v>195</v>
+      </c>
+      <c r="I196" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D197" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G197" s="1">
+        <v>0</v>
+      </c>
+      <c r="H197" s="1">
+        <v>196</v>
+      </c>
+      <c r="I197" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C198" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G198" s="1">
+        <v>0</v>
+      </c>
+      <c r="H198" s="1">
+        <v>197</v>
+      </c>
+      <c r="I198" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D199" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G199" s="1">
+        <v>0</v>
+      </c>
+      <c r="H199" s="1">
+        <v>198</v>
+      </c>
+      <c r="I199" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C200" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G200" s="1">
+        <v>0</v>
+      </c>
+      <c r="H200" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I200" s="7">
+        <v>6</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D201" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G201" s="1">
+        <v>0</v>
+      </c>
+      <c r="H201" s="1">
+        <v>200</v>
+      </c>
+      <c r="I201" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" s="1">
         <v>0</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G202" s="1">
+        <v>0</v>
+      </c>
+      <c r="H202" s="1">
+        <v>205</v>
+      </c>
+      <c r="I202" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1">
+        <v>0</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G203" s="1">
+        <v>0</v>
+      </c>
+      <c r="H203" s="1">
+        <v>202</v>
+      </c>
+      <c r="I203" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G204" s="1">
+        <v>0</v>
+      </c>
+      <c r="H204" s="1">
+        <v>205</v>
+      </c>
+      <c r="I204" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1">
+        <v>0</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G205" s="1">
+        <v>0</v>
+      </c>
+      <c r="H205" s="1">
+        <v>204</v>
+      </c>
+      <c r="I205" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1">
+        <v>0</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G206" s="1">
+        <v>0</v>
+      </c>
+      <c r="H206" s="1">
+        <v>205</v>
+      </c>
+      <c r="I206" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G207" s="1">
+        <v>0</v>
+      </c>
+      <c r="H207" s="1">
+        <v>206</v>
+      </c>
+      <c r="I207" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G208" s="1">
+        <v>0</v>
+      </c>
+      <c r="H208" s="1">
+        <v>207</v>
+      </c>
+      <c r="I208" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G209" s="1">
+        <v>0</v>
+      </c>
+      <c r="H209" s="1">
+        <v>208</v>
+      </c>
+      <c r="I209" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1">
+        <v>0</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G210" s="1">
+        <v>0</v>
+      </c>
+      <c r="H210" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I210" s="7">
+        <v>7</v>
+      </c>
+      <c r="J210" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G211" s="1">
+        <v>0</v>
+      </c>
+      <c r="H211" s="1">
+        <v>214</v>
+      </c>
+      <c r="I211" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>0</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G212" s="1">
+        <v>0</v>
+      </c>
+      <c r="H212" s="1">
+        <v>211</v>
+      </c>
+      <c r="I212" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>0</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="G213" s="1">
+        <v>0</v>
+      </c>
+      <c r="H213" s="1">
+        <v>212</v>
+      </c>
+      <c r="I213" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1">
+        <v>0</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G214" s="1">
+        <v>0</v>
+      </c>
+      <c r="H214" s="1">
+        <v>213</v>
+      </c>
+      <c r="I214" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>0</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G215" s="1">
+        <v>0</v>
+      </c>
+      <c r="H215" s="1">
+        <v>214</v>
+      </c>
+      <c r="I215" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1">
+        <v>0</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G216" s="1">
+        <v>0</v>
+      </c>
+      <c r="H216" s="1">
+        <v>215</v>
+      </c>
+      <c r="I216" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+      <c r="C217" s="6"/>
+      <c r="D217" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G217" s="1">
+        <v>0</v>
+      </c>
+      <c r="H217" s="1">
+        <v>216</v>
+      </c>
+      <c r="I217" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G218" s="1">
+        <v>0</v>
+      </c>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <v>0</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G219" s="1">
+        <v>0</v>
+      </c>
+      <c r="H219" s="1">
+        <v>218</v>
+      </c>
+      <c r="I219" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
+        <v>0</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G220" s="1">
+        <v>0</v>
+      </c>
+      <c r="H220" s="1">
+        <v>219</v>
+      </c>
+      <c r="I220" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
+        <v>0</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E221" s="3"/>
+      <c r="F221" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G221" s="1">
+        <v>0</v>
+      </c>
+      <c r="H221" s="1">
+        <v>220</v>
+      </c>
+      <c r="I221" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>0</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G222" s="1">
+        <v>0</v>
+      </c>
+      <c r="H222" s="1">
+        <v>221</v>
+      </c>
+      <c r="I222" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
+        <v>0</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G223" s="1">
+        <v>0</v>
+      </c>
+      <c r="H223" s="1">
+        <v>222</v>
+      </c>
+      <c r="I223" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>0</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G224" s="1">
+        <v>0</v>
+      </c>
+      <c r="H224" s="1">
+        <v>223</v>
+      </c>
+      <c r="I224" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
+        <v>0</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G225" s="1">
+        <v>0</v>
+      </c>
+      <c r="H225" s="1">
+        <v>224</v>
+      </c>
+      <c r="I225" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>0</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G226" s="1">
+        <v>0</v>
+      </c>
+      <c r="H226" s="1">
+        <v>225</v>
+      </c>
+      <c r="I226" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1">
+        <v>0</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G227" s="1">
+        <v>0</v>
+      </c>
+      <c r="H227" s="1">
+        <v>226</v>
+      </c>
+      <c r="I227" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
+        <v>0</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G228" s="1">
+        <v>0</v>
+      </c>
+      <c r="H228" s="1">
+        <v>227</v>
+      </c>
+      <c r="I228" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
+        <v>0</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0</v>
+      </c>
+      <c r="H229" s="1">
+        <v>228</v>
+      </c>
+      <c r="I229" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G230" s="1">
+        <v>0</v>
+      </c>
+      <c r="H230" s="1">
+        <v>229</v>
+      </c>
+      <c r="I230" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G231" s="1">
+        <v>0</v>
+      </c>
+      <c r="H231" s="1">
+        <v>230</v>
+      </c>
+      <c r="I231" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G232" s="1">
+        <v>0</v>
+      </c>
+      <c r="H232" s="1">
+        <v>231</v>
+      </c>
+      <c r="I232" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G233" s="1">
+        <v>0</v>
+      </c>
+      <c r="H233" s="1">
+        <v>232</v>
+      </c>
+      <c r="I233" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
+        <v>0</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G234" s="1">
+        <v>0</v>
+      </c>
+      <c r="H234" s="1">
+        <v>233</v>
+      </c>
+      <c r="I234" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G235" s="1">
+        <v>0</v>
+      </c>
+      <c r="H235" s="1">
+        <v>234</v>
+      </c>
+      <c r="I235" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1">
+        <v>0</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G236" s="1">
+        <v>0</v>
+      </c>
+      <c r="H236" s="1">
+        <v>235</v>
+      </c>
+      <c r="I236" s="1">
+        <v>-100</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G237" s="1">
+        <v>0</v>
+      </c>
+      <c r="H237" s="1">
+        <v>-100</v>
+      </c>
+      <c r="I237" s="1">
+        <v>8</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G238" s="1">
+        <v>0</v>
+      </c>
+      <c r="H238" s="7">
+        <v>242</v>
+      </c>
+      <c r="I238" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G239" s="1">
+        <v>0</v>
+      </c>
+      <c r="H239" s="1">
+        <v>238</v>
+      </c>
+      <c r="I239" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G240" s="1">
+        <v>0</v>
+      </c>
+      <c r="H240" s="7">
+        <v>242</v>
+      </c>
+      <c r="I240" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G241" s="1">
+        <v>0</v>
+      </c>
+      <c r="H241" s="1">
+        <v>240</v>
+      </c>
+      <c r="I241" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G242" s="1">
+        <v>0</v>
+      </c>
+      <c r="H242" s="7">
+        <v>241</v>
+      </c>
+      <c r="I242" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G243" s="1">
+        <v>0</v>
+      </c>
+      <c r="H243" s="1">
+        <v>242</v>
+      </c>
+      <c r="I243" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G244" s="1">
+        <v>0</v>
+      </c>
+      <c r="H244" s="7">
+        <v>243</v>
+      </c>
+      <c r="I244" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G245" s="1">
+        <v>0</v>
+      </c>
+      <c r="H245" s="1">
+        <v>244</v>
+      </c>
+      <c r="I245" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G246" s="1">
+        <v>0</v>
+      </c>
+      <c r="H246" s="7">
+        <v>245</v>
+      </c>
+      <c r="I246" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G247" s="1">
+        <v>0</v>
+      </c>
+      <c r="H247" s="1">
+        <v>246</v>
+      </c>
+      <c r="I247" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G248" s="1">
+        <v>0</v>
+      </c>
+      <c r="H248" s="7">
+        <v>-100</v>
+      </c>
+      <c r="I248" s="7">
+        <v>9</v>
+      </c>
+      <c r="J248" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D253" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_0926\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A26348-2DB2-4806-8F8F-AE37E227A06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910887F6-B387-4F4E-946F-8F6CAA9783C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="319">
   <si>
     <t>tweenType</t>
   </si>
@@ -969,10 +969,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>챕터2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"다른 사람들을 즐겁게 해주는 일을 하고 싶어"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1085,10 +1081,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"선배님 들으려던건 아닌데"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"조교님께 자퇴한다는 말을 언뜻 들어서요"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1182,6 +1174,114 @@
   </si>
   <si>
     <t>"어떤 일이던 잘 하실 거 같아요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"저.. 들으려던건 아닌데"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"고마워"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"너도 잘 할 수 있을거야"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"저.. 선배님.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지환이 머지2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"맞아요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시 알고 계셨어요?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그림이요..?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그림을 살면서 그려본 적이.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"찍어 봤는데.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"맞출줄은 몰랐네"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"틀렸나 보네.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"괜찮아요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나 얼른 가봐야해서"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"먼저 가볼게 다음에 보자"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네 다음에 뵐게요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(후배중에 저런 애가 있는 지 몰랐네)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"기획이요..?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"저 글 쓸줄 몰라요.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(얼른 밥이나 먹자..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 챕터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은 화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"후…"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오늘 하루 왜이렇게 고될까"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다음주는 조용하게 지나가고 싶다…"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1538,26 +1638,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K253"/>
+  <dimension ref="A1:K302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L276" sqref="L276"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" customWidth="1"/>
-    <col min="4" max="4" width="57.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="57.375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.09765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.3984375" customWidth="1"/>
-    <col min="11" max="11" width="12.8984375" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1619,7 +1719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1649,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1679,7 +1779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1709,7 +1809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1739,7 +1839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1769,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1799,7 +1899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1829,7 +1929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1859,7 +1959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1889,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1917,7 +2017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1947,7 +2047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1977,7 +2077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2007,7 +2107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2037,7 +2137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2067,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2099,7 +2199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2129,7 +2229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2161,7 +2261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2193,7 +2293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2223,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2253,7 +2353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2285,7 +2385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2317,7 +2417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2346,7 +2446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2378,7 +2478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2407,7 +2507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2436,7 +2536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2468,7 +2568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2500,7 +2600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2532,7 +2632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2564,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2593,7 +2693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2622,7 +2722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2654,7 +2754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2686,7 +2786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2715,7 +2815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2747,7 +2847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2779,7 +2879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2811,7 +2911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2840,7 +2940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2869,7 +2969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2901,7 +3001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2933,7 +3033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2965,7 +3065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2997,7 +3097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3029,7 +3129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3061,7 +3161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3093,7 +3193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3125,7 +3225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3157,7 +3257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3189,7 +3289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3218,7 +3318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3247,7 +3347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3279,7 +3379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3308,7 +3408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3338,7 +3438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3370,7 +3470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3402,7 +3502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3434,7 +3534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3466,7 +3566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3498,7 +3598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3530,7 +3630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3562,7 +3662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3594,7 +3694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3626,7 +3726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3658,7 +3758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3690,7 +3790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3722,7 +3822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3754,7 +3854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3786,7 +3886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3818,7 +3918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3850,7 +3950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3882,7 +3982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3911,7 +4011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3940,7 +4040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3969,7 +4069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3998,7 +4098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4027,7 +4127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4056,7 +4156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4085,7 +4185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4114,7 +4214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4143,7 +4243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4172,7 +4272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4201,7 +4301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4230,7 +4330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4259,7 +4359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4288,7 +4388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4320,7 +4420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4349,7 +4449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4378,7 +4478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4407,7 +4507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4436,7 +4536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4465,7 +4565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4497,7 +4597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4527,7 +4627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4559,7 +4659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4589,7 +4689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4621,7 +4721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4653,7 +4753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4683,7 +4783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4713,7 +4813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4743,7 +4843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4773,7 +4873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4805,7 +4905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4835,7 +4935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4867,7 +4967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4899,7 +4999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4928,7 +5028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4958,7 +5058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4990,7 +5090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5020,7 +5120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5050,7 +5150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5080,7 +5180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5110,7 +5210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5125,7 +5225,7 @@
         <v>11</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G117" s="1">
         <v>0</v>
@@ -5140,7 +5240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5168,7 +5268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5196,7 +5296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5224,7 +5324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5251,7 +5351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5278,7 +5378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5289,7 +5389,7 @@
         <v>11</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G123" s="1">
         <v>0</v>
@@ -5304,7 +5404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5331,7 +5431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5358,7 +5458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5385,7 +5485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5415,7 +5515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5440,7 +5540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5465,7 +5565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5491,7 +5591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5515,7 +5615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5541,7 +5641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5565,7 +5665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5589,7 +5689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5615,7 +5715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5639,7 +5739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5668,7 +5768,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5693,7 +5793,7 @@
       </c>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5719,7 +5819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5746,7 +5846,7 @@
       </c>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5772,7 +5872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5798,7 +5898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5824,7 +5924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5850,7 +5950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5876,7 +5976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5902,7 +6002,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5925,7 +6025,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5948,7 +6048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5971,7 +6071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5994,7 +6094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6020,7 +6120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6046,7 +6146,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6072,7 +6172,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6098,7 +6198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6124,7 +6224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6150,7 +6250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6176,7 +6276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6202,7 +6302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6225,7 +6325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6251,7 +6351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6274,7 +6374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6297,7 +6397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6320,7 +6420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6346,7 +6446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6369,7 +6469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6392,7 +6492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6415,7 +6515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6441,7 +6541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6467,7 +6567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6490,7 +6590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6516,7 +6616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6539,7 +6639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6562,7 +6662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6585,7 +6685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6611,7 +6711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6637,7 +6737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6660,7 +6760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6686,7 +6786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6702,14 +6802,17 @@
       <c r="G179" s="1">
         <v>0</v>
       </c>
+      <c r="H179" s="7">
+        <v>276</v>
+      </c>
       <c r="I179" s="1">
         <v>-100</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6723,7 +6826,7 @@
         <v>11</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G180" s="1">
         <v>0</v>
@@ -6738,7 +6841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6764,7 +6867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6787,7 +6890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6810,7 +6913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6836,7 +6939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6859,7 +6962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6885,7 +6988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6911,7 +7014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6937,7 +7040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6960,7 +7063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6989,7 +7092,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7015,7 +7118,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7041,7 +7144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7067,7 +7170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -7093,7 +7196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7119,7 +7222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7145,7 +7248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7168,7 +7271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7194,7 +7297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7220,7 +7323,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7246,7 +7349,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7269,7 +7372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7295,7 +7398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7303,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G203" s="1">
         <v>0</v>
@@ -7318,7 +7421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7329,7 +7432,7 @@
         <v>125</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G204" s="1">
         <v>0</v>
@@ -7344,7 +7447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7352,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G205" s="1">
         <v>0</v>
@@ -7367,7 +7470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7378,7 +7481,7 @@
         <v>125</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G206" s="1">
         <v>0</v>
@@ -7393,7 +7496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7404,7 +7507,7 @@
         <v>125</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G207" s="1">
         <v>0</v>
@@ -7419,7 +7522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7427,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G208" s="1">
         <v>0</v>
@@ -7442,7 +7545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7450,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G209" s="1">
         <v>0</v>
@@ -7468,7 +7571,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7491,10 +7594,10 @@
         <v>7</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7505,7 +7608,7 @@
         <v>125</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G211" s="1">
         <v>0</v>
@@ -7520,7 +7623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7531,7 +7634,7 @@
         <v>125</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G212" s="1">
         <v>0</v>
@@ -7546,7 +7649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7557,7 +7660,7 @@
         <v>125</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G213" s="1">
         <v>0</v>
@@ -7572,7 +7675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7583,7 +7686,7 @@
         <v>125</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G214" s="1">
         <v>0</v>
@@ -7598,7 +7701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7609,7 +7712,7 @@
         <v>125</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G215" s="1">
         <v>0</v>
@@ -7624,7 +7727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7632,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G216" s="1">
         <v>0</v>
@@ -7647,7 +7750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7656,7 +7759,7 @@
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G217" s="1">
         <v>0</v>
@@ -7671,7 +7774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7682,20 +7785,22 @@
         <v>125</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G218" s="1">
         <v>0</v>
       </c>
-      <c r="H218" s="1"/>
+      <c r="H218" s="7">
+        <v>276</v>
+      </c>
       <c r="I218" s="1">
         <v>-100</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7703,13 +7808,13 @@
         <v>0</v>
       </c>
       <c r="D219" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F219" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="G219" s="1">
         <v>0</v>
@@ -7724,7 +7829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7735,7 +7840,7 @@
         <v>11</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G220" s="1">
         <v>0</v>
@@ -7750,19 +7855,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" s="1">
         <v>0</v>
       </c>
+      <c r="C221" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D221" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G221" s="1">
         <v>0</v>
@@ -7777,7 +7885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7785,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G222" s="1">
         <v>0</v>
@@ -7800,7 +7908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7808,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G223" s="1">
         <v>0</v>
@@ -7823,15 +7931,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" s="1">
         <v>0</v>
       </c>
+      <c r="C224" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D224" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G224" s="1">
         <v>0</v>
@@ -7846,7 +7957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7854,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G225" s="1">
         <v>0</v>
@@ -7869,7 +7980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7877,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G226" s="1">
         <v>0</v>
@@ -7892,15 +8003,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" s="1">
         <v>0</v>
       </c>
+      <c r="C227" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D227" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G227" s="1">
         <v>0</v>
@@ -7915,15 +8029,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" s="1">
         <v>0</v>
       </c>
+      <c r="C228" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D228" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G228" s="1">
         <v>0</v>
@@ -7938,7 +8055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7946,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G229" s="1">
         <v>0</v>
@@ -7961,7 +8078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7984,15 +8101,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" s="1">
         <v>0</v>
       </c>
+      <c r="C231" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D231" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G231" s="1">
         <v>0</v>
@@ -8007,7 +8127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -8015,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G232" s="1">
         <v>0</v>
@@ -8030,15 +8150,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" s="1">
         <v>0</v>
       </c>
+      <c r="C233" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D233" s="3" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="G233" s="1">
         <v>0</v>
@@ -8053,15 +8176,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" s="1">
         <v>0</v>
       </c>
+      <c r="C234" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D234" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G234" s="1">
         <v>0</v>
@@ -8076,15 +8202,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" s="1">
         <v>0</v>
       </c>
+      <c r="C235" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D235" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G235" s="1">
         <v>0</v>
@@ -8099,7 +8228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8107,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G236" s="1">
         <v>0</v>
@@ -8125,15 +8254,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" s="1">
         <v>0</v>
       </c>
+      <c r="C237" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D237" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G237" s="1">
         <v>0</v>
@@ -8145,15 +8277,21 @@
         <v>8</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
+      <c r="B238" s="1">
+        <v>0</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D238" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G238" s="1">
         <v>0</v>
@@ -8168,12 +8306,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
+      <c r="B239" s="1">
+        <v>0</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D239" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G239" s="1">
         <v>0</v>
@@ -8188,12 +8332,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
+      <c r="B240" s="1">
+        <v>0</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D240" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G240" s="1">
         <v>0</v>
@@ -8208,10 +8358,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
+      <c r="B241" s="1">
+        <v>0</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D241" s="3" t="s">
         <v>142</v>
       </c>
@@ -8228,12 +8384,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
+      <c r="B242" s="1">
+        <v>0</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D242" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G242" s="1">
         <v>0</v>
@@ -8248,12 +8410,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
+      <c r="B243" s="1">
+        <v>0</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D243" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G243" s="1">
         <v>0</v>
@@ -8268,12 +8436,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
+      <c r="B244" s="1">
+        <v>0</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D244" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G244" s="1">
         <v>0</v>
@@ -8288,12 +8462,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
+      <c r="B245" s="1">
+        <v>0</v>
+      </c>
       <c r="D245" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G245" s="1">
         <v>0</v>
@@ -8308,12 +8485,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
+      <c r="B246" s="1">
+        <v>0</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D246" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G246" s="1">
         <v>0</v>
@@ -8328,12 +8511,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
+      <c r="B247" s="1">
+        <v>0</v>
+      </c>
       <c r="D247" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G247" s="1">
         <v>0</v>
@@ -8351,12 +8537,18 @@
         <v>238</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
+      <c r="B248" s="1">
+        <v>0</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D248" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G248" s="1">
         <v>0</v>
@@ -8368,44 +8560,1006 @@
         <v>9</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
+      <c r="B249" s="1">
+        <v>0</v>
+      </c>
       <c r="D249" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
+        <v>287</v>
+      </c>
+      <c r="G249" s="1">
+        <v>0</v>
+      </c>
+      <c r="H249" s="1">
+        <v>250</v>
+      </c>
+      <c r="I249" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
+      <c r="B250" s="1">
+        <v>0</v>
+      </c>
       <c r="D250" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
+        <v>288</v>
+      </c>
+      <c r="G250" s="1">
+        <v>0</v>
+      </c>
+      <c r="H250" s="7">
+        <v>250</v>
+      </c>
+      <c r="I250" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
+      <c r="B251" s="1">
+        <v>0</v>
+      </c>
       <c r="D251" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
+        <v>289</v>
+      </c>
+      <c r="G251" s="1">
+        <v>0</v>
+      </c>
+      <c r="H251" s="7">
+        <v>250</v>
+      </c>
+      <c r="I251" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
+      <c r="B252" s="1">
+        <v>0</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="D252" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G252" s="1">
+        <v>0</v>
+      </c>
+      <c r="H252" s="7">
+        <v>251</v>
+      </c>
+      <c r="I252" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1">
+        <v>0</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G253" s="1">
+        <v>0</v>
+      </c>
+      <c r="H253" s="7">
+        <v>252</v>
+      </c>
+      <c r="I253" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
+        <v>0</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G254" s="1">
+        <v>0</v>
+      </c>
+      <c r="H254" s="7">
+        <v>253</v>
+      </c>
+      <c r="I254" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
+        <v>0</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G255" s="1">
+        <v>0</v>
+      </c>
+      <c r="H255" s="7">
+        <v>254</v>
+      </c>
+      <c r="I255" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1">
+        <v>0</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G256" s="1">
+        <v>0</v>
+      </c>
+      <c r="H256" s="7">
+        <v>-100</v>
+      </c>
+      <c r="I256" s="7">
+        <v>10</v>
+      </c>
+      <c r="J256" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1">
+        <v>0</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G257" s="1">
+        <v>0</v>
+      </c>
+      <c r="H257" s="7">
+        <v>256</v>
+      </c>
+      <c r="I257" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1">
+        <v>0</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F258" s="3"/>
+      <c r="G258" s="1">
+        <v>0</v>
+      </c>
+      <c r="H258" s="7">
+        <v>257</v>
+      </c>
+      <c r="I258" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1">
+        <v>0</v>
+      </c>
+      <c r="C259" s="6"/>
+      <c r="D259" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F259" s="3"/>
+      <c r="G259" s="1">
+        <v>0</v>
+      </c>
+      <c r="H259" s="7">
+        <v>258</v>
+      </c>
+      <c r="I259" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1">
+        <v>0</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G260" s="1">
+        <v>0</v>
+      </c>
+      <c r="H260" s="7">
+        <v>266</v>
+      </c>
+      <c r="I260" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G261" s="1">
+        <v>0</v>
+      </c>
+      <c r="H261" s="7">
+        <v>260</v>
+      </c>
+      <c r="I261" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1">
+        <v>0</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G262" s="1">
+        <v>0</v>
+      </c>
+      <c r="H262" s="7">
+        <v>263</v>
+      </c>
+      <c r="I262" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1">
+        <v>0</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G263" s="1">
+        <v>0</v>
+      </c>
+      <c r="H263" s="7">
+        <v>262</v>
+      </c>
+      <c r="I263" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1">
+        <v>0</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G264" s="1">
+        <v>0</v>
+      </c>
+      <c r="H264" s="7">
+        <v>263</v>
+      </c>
+      <c r="I264" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1">
+        <v>0</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G265" s="1">
+        <v>0</v>
+      </c>
+      <c r="H265" s="7">
+        <v>264</v>
+      </c>
+      <c r="I265" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1">
+        <v>0</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G266" s="1">
+        <v>0</v>
+      </c>
+      <c r="H266" s="7">
+        <v>265</v>
+      </c>
+      <c r="I266" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1">
+        <v>0</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G267" s="1">
+        <v>0</v>
+      </c>
+      <c r="H267" s="7">
+        <v>266</v>
+      </c>
+      <c r="I267" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
+        <v>0</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G268" s="1">
+        <v>0</v>
+      </c>
+      <c r="H268" s="7">
+        <v>267</v>
+      </c>
+      <c r="I268" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
+        <v>0</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G269" s="1">
+        <v>0</v>
+      </c>
+      <c r="H269" s="7">
+        <v>268</v>
+      </c>
+      <c r="I269" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
+        <v>0</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G270" s="1">
+        <v>0</v>
+      </c>
+      <c r="H270" s="7">
+        <v>269</v>
+      </c>
+      <c r="I270" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1">
+        <v>0</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G271" s="1">
+        <v>0</v>
+      </c>
+      <c r="H271" s="7">
+        <v>270</v>
+      </c>
+      <c r="I271" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>0</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G272" s="1">
+        <v>0</v>
+      </c>
+      <c r="H272" s="7">
+        <v>271</v>
+      </c>
+      <c r="I272" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>0</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G273" s="1">
+        <v>0</v>
+      </c>
+      <c r="H273" s="7">
+        <v>272</v>
+      </c>
+      <c r="I273" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
+        <v>0</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G274" s="1">
+        <v>0</v>
+      </c>
+      <c r="H274" s="7">
+        <v>273</v>
+      </c>
+      <c r="I274" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
+        <v>0</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="G275" s="1">
+        <v>0</v>
+      </c>
+      <c r="H275" s="7">
+        <v>274</v>
+      </c>
+      <c r="I275" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1">
+        <v>0</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G276" s="1">
+        <v>0</v>
+      </c>
+      <c r="H276" s="7">
+        <v>275</v>
+      </c>
+      <c r="I276" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>0</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G277" s="1">
+        <v>0</v>
+      </c>
+      <c r="H277" s="7">
+        <v>276</v>
+      </c>
+      <c r="I277" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>0</v>
+      </c>
+      <c r="G278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
+        <v>0</v>
+      </c>
+      <c r="G279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>0</v>
+      </c>
+      <c r="G280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
+        <v>0</v>
+      </c>
+      <c r="G281" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
+        <v>0</v>
+      </c>
+      <c r="G282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1">
+        <v>0</v>
+      </c>
+      <c r="G283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1">
+        <v>0</v>
+      </c>
+      <c r="G284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1">
+        <v>0</v>
+      </c>
+      <c r="G285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1">
+        <v>0</v>
+      </c>
+      <c r="G286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1">
+        <v>0</v>
+      </c>
+      <c r="G287" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1">
+        <v>0</v>
+      </c>
+      <c r="G288" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1">
+        <v>0</v>
+      </c>
+      <c r="G289" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1">
+        <v>0</v>
+      </c>
+      <c r="G290" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1">
+        <v>0</v>
+      </c>
+      <c r="G291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1">
+        <v>0</v>
+      </c>
+      <c r="G292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1">
+        <v>0</v>
+      </c>
+      <c r="G293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D253" s="3" t="s">
+      <c r="B294" s="1">
+        <v>0</v>
+      </c>
+      <c r="G294" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
         <v>293</v>
+      </c>
+      <c r="B295" s="1">
+        <v>0</v>
+      </c>
+      <c r="G295" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1">
+        <v>0</v>
+      </c>
+      <c r="G296" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1">
+        <v>0</v>
+      </c>
+      <c r="G297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1">
+        <v>0</v>
+      </c>
+      <c r="G298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1">
+        <v>0</v>
+      </c>
+      <c r="G299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1">
+        <v>0</v>
+      </c>
+      <c r="G300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" s="1">
+        <v>0</v>
+      </c>
+      <c r="G301" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1">
+        <v>0</v>
+      </c>
+      <c r="G302" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_0926\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910887F6-B387-4F4E-946F-8F6CAA9783C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C580F64-73C6-48ED-A9EC-39EF509299DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="371">
   <si>
     <t>tweenType</t>
   </si>
@@ -1282,6 +1282,214 @@
   </si>
   <si>
     <t>"다음주는 조용하게 지나가고 싶다…"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 로비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 안늦어서 다행이다)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(조교님께 자퇴서 내고 얼른 가자)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름다리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무실 앞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어..?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"자퇴서가 어디있지..?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"왜 .. 없어 어디에 놓고 온거지?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지로 이어지는 씬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민혁이 머지4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"종이? 종이는 못본거같은데"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 정말요..?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"중요한 물건 인가보네"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 네…"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"오늘까지 제출하려고 했던 거라서요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어? 선배!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아직 안가셨네요?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"같이 밥먹어요!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다음에 같이 먹자"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"지금은 좀 바빠서"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네~!"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그래서 무슨 얘기 중이었지?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아.. 아니에요.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"죄송해요 먼저 가볼게요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아 잠깐만"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"선배도 저 피하시는게 좋을거에요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"저같은 우중충한 사람이랑은 어울리지 않으니까요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그게 왜?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"선배도 다른 사람들 앞에선"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"저 아는척 안하시잖아요.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"선배도 아시는 거죠?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그건 오해야"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"진짜 오해라니까"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>___</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민혁이 머지5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어차피 자퇴할 애니까 그냥.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나한테도 너는 항상 챙겨주고 싶은 후배야"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그래..?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네..?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나한테는 너는 더 특별한데"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민혁이 머지6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼 저녁에 만나서 말해줘도 될까?"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼 시간 보고 연락해줘"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그럼 먼저 가보겠습니다"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"네 그럼 이따 연락 드릴게요"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뭐야..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(무슨 말을 하려고 그러는거지..)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 확인 씬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>집가는 길</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1337,7 +1545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,6 +1568,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1638,26 +1849,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K302"/>
+  <dimension ref="A1:K402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L276" sqref="L276"/>
+    <sheetView tabSelected="1" topLeftCell="A318" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" customWidth="1"/>
+    <col min="4" max="4" width="57.3984375" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="25.09765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.69921875" customWidth="1"/>
+    <col min="11" max="11" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1689,7 +1900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1719,7 +1930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1749,7 +1960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1779,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1809,7 +2020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1839,7 +2050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1869,7 +2080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1899,7 +2110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1929,7 +2140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1959,7 +2170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1989,7 +2200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2017,7 +2228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2047,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2077,7 +2288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2107,7 +2318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2137,7 +2348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2167,7 +2378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2199,7 +2410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2229,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2261,7 +2472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2293,7 +2504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2323,7 +2534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2353,7 +2564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2385,7 +2596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2417,7 +2628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2446,7 +2657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2478,7 +2689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2507,7 +2718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2536,7 +2747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2568,7 +2779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2600,7 +2811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2632,7 +2843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2664,7 +2875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2693,7 +2904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2722,7 +2933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2754,7 +2965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2786,7 +2997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2815,7 +3026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2847,7 +3058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2879,7 +3090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2911,7 +3122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2940,7 +3151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2969,7 +3180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3001,7 +3212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3033,7 +3244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3065,7 +3276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3097,7 +3308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3129,7 +3340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3161,7 +3372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3192,8 +3403,11 @@
       <c r="J50" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3225,7 +3439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3257,7 +3471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3289,7 +3503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3318,7 +3532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3347,7 +3561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3379,7 +3593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3408,7 +3622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3438,7 +3652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3470,7 +3684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3502,7 +3716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3534,7 +3748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3566,7 +3780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3598,7 +3812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3630,7 +3844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3662,7 +3876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3694,7 +3908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3726,7 +3940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3758,7 +3972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3790,7 +4004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3822,7 +4036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3854,7 +4068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3886,7 +4100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3918,7 +4132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3950,7 +4164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3982,7 +4196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4011,7 +4225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4040,7 +4254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4069,7 +4283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4098,7 +4312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4127,7 +4341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4156,7 +4370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4185,7 +4399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4214,7 +4428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4243,7 +4457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4272,7 +4486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4301,7 +4515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4330,7 +4544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4359,7 +4573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4388,7 +4602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4420,7 +4634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4449,13 +4663,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
       </c>
+      <c r="C92" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="D92" s="3" t="s">
         <v>109</v>
       </c>
@@ -4478,7 +4695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4507,7 +4724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4536,7 +4753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4565,7 +4782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4597,7 +4814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4627,7 +4844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4659,7 +4876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4689,7 +4906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4721,7 +4938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4753,7 +4970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4783,7 +5000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4813,7 +5030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4843,7 +5060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4873,7 +5090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4905,7 +5122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4935,7 +5152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4967,7 +5184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4999,7 +5216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5028,7 +5245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5058,7 +5275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5090,7 +5307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5120,7 +5337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5150,7 +5367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5180,7 +5397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5210,7 +5427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5240,7 +5457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5268,7 +5485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5296,7 +5513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5324,7 +5541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5348,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5378,7 +5595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5404,7 +5621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5431,7 +5648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5458,7 +5675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5485,7 +5702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5515,7 +5732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5540,7 +5757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5565,7 +5782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5591,7 +5808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5615,7 +5832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5641,7 +5858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5665,7 +5882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5689,7 +5906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5715,7 +5932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5739,7 +5956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5768,7 +5985,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5793,7 +6010,7 @@
       </c>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5819,7 +6036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5846,7 +6063,7 @@
       </c>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5872,7 +6089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5898,7 +6115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5924,7 +6141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5950,7 +6167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5976,7 +6193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6002,7 +6219,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6025,7 +6242,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6048,7 +6265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6071,7 +6288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6094,7 +6311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6120,7 +6337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6146,7 +6363,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6172,7 +6389,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6198,7 +6415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6224,7 +6441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6250,7 +6467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6276,7 +6493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6302,7 +6519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6325,7 +6542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6351,7 +6568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6374,7 +6591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6397,7 +6614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6420,7 +6637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6446,7 +6663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6469,7 +6686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6492,7 +6709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6515,7 +6732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6541,7 +6758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6567,7 +6784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6590,7 +6807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6616,7 +6833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6639,7 +6856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6662,7 +6879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6685,7 +6902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6711,7 +6928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6737,7 +6954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6760,7 +6977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6786,7 +7003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6812,7 +7029,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6841,7 +7058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6867,7 +7084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6890,7 +7107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6913,7 +7130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6939,7 +7156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6962,7 +7179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6988,7 +7205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -7014,7 +7231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -7040,7 +7257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7063,7 +7280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7092,7 +7309,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7118,7 +7335,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7144,7 +7361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7170,7 +7387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -7196,7 +7413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7222,7 +7439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7248,7 +7465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7271,7 +7488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7297,7 +7514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7323,7 +7540,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7349,7 +7566,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7372,7 +7589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -7398,7 +7615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7421,7 +7638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7447,7 +7664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7470,7 +7687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7496,7 +7713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7522,7 +7739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7545,7 +7762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7571,7 +7788,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7597,7 +7814,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7623,7 +7840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7649,7 +7866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7675,7 +7892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7701,7 +7918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7727,7 +7944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7750,7 +7967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7774,7 +7991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7800,7 +8017,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7829,7 +8046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7855,7 +8072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7885,7 +8102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7908,7 +8125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7931,7 +8148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7957,7 +8174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7980,7 +8197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -8003,7 +8220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -8029,7 +8246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -8055,7 +8272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -8078,7 +8295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -8101,7 +8318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -8127,7 +8344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -8150,7 +8367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -8176,7 +8393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8202,7 +8419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8228,7 +8445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8254,7 +8471,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8280,7 +8497,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8306,7 +8523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8332,7 +8549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8358,7 +8575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8384,7 +8601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8410,7 +8627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8436,7 +8653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8462,7 +8679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -8485,7 +8702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -8511,7 +8728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8537,7 +8754,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8563,7 +8780,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8586,7 +8803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8609,7 +8826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -8632,7 +8849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8658,7 +8875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8684,7 +8901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8707,7 +8924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8733,7 +8950,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -8759,7 +8976,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8785,7 +9002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -8812,7 +9029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -8837,7 +9054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8860,7 +9077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8886,7 +9103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8912,7 +9129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8938,7 +9155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8964,7 +9181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8987,7 +9204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -9010,7 +9227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -9036,7 +9253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -9059,7 +9276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -9082,7 +9299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -9105,7 +9322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -9131,7 +9348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -9154,7 +9371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -9180,7 +9397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -9190,7 +9407,7 @@
       <c r="E274" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F274" s="4" t="s">
+      <c r="F274" s="6" t="s">
         <v>314</v>
       </c>
       <c r="G274" s="1">
@@ -9206,7 +9423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -9219,7 +9436,7 @@
       <c r="E275" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F275" s="4" t="s">
+      <c r="F275" s="6" t="s">
         <v>315</v>
       </c>
       <c r="G275" s="1">
@@ -9235,7 +9452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -9248,6 +9465,7 @@
       <c r="E276" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F276" s="7"/>
       <c r="G276" s="1">
         <v>0</v>
       </c>
@@ -9261,7 +9479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -9274,6 +9492,7 @@
       <c r="E277" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F277" s="7"/>
       <c r="G277" s="1">
         <v>0</v>
       </c>
@@ -9287,279 +9506,1661 @@
         <v>313</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" s="1">
         <v>0</v>
       </c>
+      <c r="E278" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>319</v>
+      </c>
       <c r="G278" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H278" s="7">
+        <v>277</v>
+      </c>
+      <c r="I278" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" s="1">
         <v>0</v>
       </c>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>320</v>
+      </c>
       <c r="G279" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H279" s="7">
+        <v>278</v>
+      </c>
+      <c r="I279" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" s="1">
         <v>0</v>
       </c>
+      <c r="D280" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280" s="7"/>
       <c r="G280" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H280" s="7">
+        <v>279</v>
+      </c>
+      <c r="I280" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" s="1">
         <v>0</v>
       </c>
+      <c r="D281" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281" s="7"/>
       <c r="G281" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H281" s="7">
+        <v>280</v>
+      </c>
+      <c r="I281" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" s="1">
         <v>0</v>
       </c>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>323</v>
+      </c>
       <c r="G282" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H282" s="7">
+        <v>281</v>
+      </c>
+      <c r="I282" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" s="1">
         <v>0</v>
       </c>
+      <c r="E283" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="G283" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H283" s="7">
+        <v>282</v>
+      </c>
+      <c r="I283" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" s="1">
         <v>0</v>
       </c>
+      <c r="F284" s="6" t="s">
+        <v>325</v>
+      </c>
       <c r="G284" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H284" s="7">
+        <v>283</v>
+      </c>
+      <c r="I284" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>283</v>
       </c>
       <c r="B285" s="1">
         <v>0</v>
       </c>
+      <c r="D285" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F285" s="7"/>
       <c r="G285" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H285" s="7">
+        <v>284</v>
+      </c>
+      <c r="I285" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>284</v>
       </c>
       <c r="B286" s="1">
         <v>0</v>
       </c>
+      <c r="D286" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="G286" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H286" s="7">
+        <v>285</v>
+      </c>
+      <c r="I286" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>285</v>
       </c>
       <c r="B287" s="1">
         <v>0</v>
       </c>
+      <c r="D287" s="6" t="s">
+        <v>329</v>
+      </c>
       <c r="G287" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H287" s="7">
+        <v>-100</v>
+      </c>
+      <c r="I287" s="7">
+        <v>11</v>
+      </c>
+      <c r="J287" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" s="1">
         <v>0</v>
       </c>
+      <c r="D288" s="7"/>
+      <c r="F288" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="G288" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288" s="7">
+        <v>287</v>
+      </c>
+      <c r="I288" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J288" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>287</v>
       </c>
       <c r="B289" s="1">
         <v>0</v>
       </c>
+      <c r="C289" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="G289" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289" s="7">
+        <v>288</v>
+      </c>
+      <c r="I289" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J289" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>288</v>
       </c>
       <c r="B290" s="1">
         <v>0</v>
       </c>
+      <c r="D290" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="G290" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290" s="7">
+        <v>289</v>
+      </c>
+      <c r="I290" s="7">
+        <v>12</v>
+      </c>
+      <c r="J290" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>289</v>
       </c>
       <c r="B291" s="1">
         <v>0</v>
       </c>
+      <c r="C291" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>332</v>
+      </c>
       <c r="G291" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H291" s="7">
+        <v>290</v>
+      </c>
+      <c r="I291" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J291" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>290</v>
       </c>
       <c r="B292" s="1">
         <v>0</v>
       </c>
+      <c r="D292" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E292" s="4"/>
       <c r="G292" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H292" s="7">
+        <v>292</v>
+      </c>
+      <c r="I292" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J292" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>291</v>
       </c>
       <c r="B293" s="1">
         <v>0</v>
       </c>
+      <c r="C293" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D293" s="8" t="s">
+        <v>218</v>
+      </c>
       <c r="G293" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H293" s="7">
+        <v>292</v>
+      </c>
+      <c r="I293" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J293" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>292</v>
       </c>
       <c r="B294" s="1">
         <v>0</v>
       </c>
+      <c r="C294" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>334</v>
+      </c>
       <c r="G294" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H294" s="7">
+        <v>293</v>
+      </c>
+      <c r="I294" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J294" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>293</v>
       </c>
       <c r="B295" s="1">
         <v>0</v>
       </c>
+      <c r="D295" s="6" t="s">
+        <v>335</v>
+      </c>
       <c r="G295" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H295" s="7">
+        <v>294</v>
+      </c>
+      <c r="I295" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J295" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>294</v>
       </c>
       <c r="B296" s="1">
         <v>0</v>
       </c>
+      <c r="D296" s="6" t="s">
+        <v>336</v>
+      </c>
       <c r="G296" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H296" s="7">
+        <v>295</v>
+      </c>
+      <c r="I296" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J296" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>295</v>
       </c>
       <c r="B297" s="1">
         <v>0</v>
       </c>
+      <c r="C297" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>337</v>
+      </c>
       <c r="G297" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H297" s="7">
+        <v>296</v>
+      </c>
+      <c r="I297" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J297" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>296</v>
       </c>
       <c r="B298" s="1">
         <v>0</v>
       </c>
+      <c r="C298" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>338</v>
+      </c>
       <c r="G298" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H298" s="7">
+        <v>297</v>
+      </c>
+      <c r="I298" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J298" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>297</v>
       </c>
       <c r="B299" s="1">
         <v>0</v>
       </c>
+      <c r="C299" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="G299" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H299" s="7">
+        <v>298</v>
+      </c>
+      <c r="I299" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J299" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>298</v>
       </c>
       <c r="B300" s="1">
         <v>0</v>
       </c>
+      <c r="C300" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>340</v>
+      </c>
       <c r="G300" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H300" s="7">
+        <v>299</v>
+      </c>
+      <c r="I300" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J300" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>299</v>
       </c>
       <c r="B301" s="1">
         <v>0</v>
       </c>
+      <c r="C301" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>341</v>
+      </c>
       <c r="G301" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H301" s="7">
+        <v>300</v>
+      </c>
+      <c r="I301" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J301" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A302" s="1">
         <v>300</v>
       </c>
       <c r="B302" s="1">
         <v>0</v>
       </c>
+      <c r="C302" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="G302" s="1">
         <v>0</v>
+      </c>
+      <c r="H302" s="7">
+        <v>301</v>
+      </c>
+      <c r="I302" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J302" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1">
+        <v>0</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="G303" s="1">
+        <v>0</v>
+      </c>
+      <c r="H303" s="7">
+        <v>302</v>
+      </c>
+      <c r="I303" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J303" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1">
+        <v>0</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="G304" s="1">
+        <v>0</v>
+      </c>
+      <c r="H304" s="7">
+        <v>303</v>
+      </c>
+      <c r="I304" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J304" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1">
+        <v>0</v>
+      </c>
+      <c r="D305" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="G305" s="1">
+        <v>0</v>
+      </c>
+      <c r="H305" s="7">
+        <v>304</v>
+      </c>
+      <c r="I305" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J305" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1">
+        <v>0</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G306" s="1">
+        <v>0</v>
+      </c>
+      <c r="H306" s="7">
+        <v>305</v>
+      </c>
+      <c r="I306" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J306" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1">
+        <v>0</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G307" s="1">
+        <v>0</v>
+      </c>
+      <c r="H307" s="7">
+        <v>306</v>
+      </c>
+      <c r="I307" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J307" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1">
+        <v>0</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="G308" s="1">
+        <v>0</v>
+      </c>
+      <c r="H308" s="7">
+        <v>307</v>
+      </c>
+      <c r="I308" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J308" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1">
+        <v>0</v>
+      </c>
+      <c r="C309" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D309" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G309" s="1">
+        <v>0</v>
+      </c>
+      <c r="H309" s="7">
+        <v>308</v>
+      </c>
+      <c r="I309" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J309" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1">
+        <v>0</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G310" s="1">
+        <v>0</v>
+      </c>
+      <c r="H310" s="7">
+        <v>309</v>
+      </c>
+      <c r="I310" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J310" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1">
+        <v>0</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G311" s="1">
+        <v>0</v>
+      </c>
+      <c r="H311" s="7">
+        <v>310</v>
+      </c>
+      <c r="I311" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J311" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1">
+        <v>0</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G312" s="1">
+        <v>0</v>
+      </c>
+      <c r="H312" s="7">
+        <v>311</v>
+      </c>
+      <c r="I312" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J312" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1">
+        <v>0</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D313" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G313" s="1">
+        <v>0</v>
+      </c>
+      <c r="H313" s="7">
+        <v>312</v>
+      </c>
+      <c r="I313" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J313" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1">
+        <v>0</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G314" s="1">
+        <v>0</v>
+      </c>
+      <c r="H314" s="7">
+        <v>313</v>
+      </c>
+      <c r="I314" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J314" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1">
+        <v>0</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D315" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G315" s="1">
+        <v>0</v>
+      </c>
+      <c r="H315" s="7">
+        <v>-100</v>
+      </c>
+      <c r="I315" s="7">
+        <v>13</v>
+      </c>
+      <c r="J315" s="6" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1">
+        <v>0</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G316" s="1">
+        <v>0</v>
+      </c>
+      <c r="H316" s="7">
+        <v>315</v>
+      </c>
+      <c r="I316" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J316" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1">
+        <v>0</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D317" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G317" s="1">
+        <v>0</v>
+      </c>
+      <c r="H317" s="7">
+        <v>318</v>
+      </c>
+      <c r="I317" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J317" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1">
+        <v>0</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G318" s="1">
+        <v>0</v>
+      </c>
+      <c r="H318" s="7">
+        <v>317</v>
+      </c>
+      <c r="I318" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J318" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1">
+        <v>0</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D319" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G319" s="1">
+        <v>0</v>
+      </c>
+      <c r="H319" s="7">
+        <v>318</v>
+      </c>
+      <c r="I319" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J319" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1">
+        <v>0</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G320" s="1">
+        <v>0</v>
+      </c>
+      <c r="H320" s="7">
+        <v>-100</v>
+      </c>
+      <c r="I320" s="7">
+        <v>14</v>
+      </c>
+      <c r="J320" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1">
+        <v>0</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D321" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="G321" s="1">
+        <v>0</v>
+      </c>
+      <c r="H321" s="7">
+        <v>323</v>
+      </c>
+      <c r="I321" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J321" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1">
+        <v>0</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G322" s="1">
+        <v>0</v>
+      </c>
+      <c r="H322" s="7">
+        <v>323</v>
+      </c>
+      <c r="I322" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J322" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1">
+        <v>0</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D323" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G323" s="1">
+        <v>0</v>
+      </c>
+      <c r="H323" s="7">
+        <v>322</v>
+      </c>
+      <c r="I323" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J323" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1">
+        <v>0</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G324" s="1">
+        <v>0</v>
+      </c>
+      <c r="H324" s="7">
+        <v>324</v>
+      </c>
+      <c r="I324" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J324" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1">
+        <v>0</v>
+      </c>
+      <c r="C325" s="6"/>
+      <c r="D325" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G325" s="1">
+        <v>0</v>
+      </c>
+      <c r="H325" s="7">
+        <v>324</v>
+      </c>
+      <c r="I325" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J325" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1">
+        <v>0</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G326" s="1">
+        <v>0</v>
+      </c>
+      <c r="H326" s="7">
+        <v>325</v>
+      </c>
+      <c r="I326" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J326" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1">
+        <v>0</v>
+      </c>
+      <c r="D327" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G327" s="1">
+        <v>0</v>
+      </c>
+      <c r="I327" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J327" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1">
+        <v>0</v>
+      </c>
+      <c r="F328" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="G328" s="1">
+        <v>0</v>
+      </c>
+      <c r="H328" s="7">
+        <v>327</v>
+      </c>
+      <c r="I328" s="7">
+        <v>-100</v>
+      </c>
+      <c r="J328" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1">
+        <v>0</v>
+      </c>
+      <c r="D329" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="1">
+        <v>0</v>
+      </c>
+      <c r="D330" s="6"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A402" s="1">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA249A9-EA3C-4461-AECA-5F3F65F7A9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D9129E-C94F-4E1A-8AA2-AE2BD9D2E4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="484">
   <si>
     <t>tweenType</t>
   </si>
@@ -632,10 +632,6 @@
   </si>
   <si>
     <t>(… 조용히 하다 빨리 가자)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2303,8 +2299,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C400" sqref="C400"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="I460" sqref="I460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3858,7 +3854,7 @@
         <v>66</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -5166,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>109</v>
@@ -6018,7 +6014,7 @@
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>11</v>
@@ -6049,7 +6045,7 @@
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>11</v>
@@ -6096,10 +6092,10 @@
         <v>1</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -6263,7 +6259,7 @@
         <v>108</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>62</v>
@@ -6291,7 +6287,10 @@
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>62</v>
@@ -6319,7 +6318,10 @@
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>62</v>
@@ -6349,7 +6351,10 @@
         <v>110</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>62</v>
@@ -6377,7 +6382,10 @@
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>62</v>
@@ -6407,7 +6415,10 @@
         <v>110</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>62</v>
@@ -6435,7 +6446,10 @@
       </c>
       <c r="C133" s="7"/>
       <c r="D133" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>62</v>
@@ -6463,7 +6477,10 @@
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>62</v>
@@ -6493,7 +6510,10 @@
         <v>110</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>62</v>
@@ -6521,7 +6541,10 @@
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>62</v>
@@ -6551,7 +6574,10 @@
         <v>110</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>62</v>
@@ -6578,7 +6604,10 @@
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>62</v>
@@ -6593,10 +6622,10 @@
         <v>2</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -6610,7 +6639,10 @@
         <v>110</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>62</v>
@@ -6640,7 +6672,10 @@
         <v>110</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>62</v>
@@ -6670,7 +6705,10 @@
         <v>110</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>62</v>
@@ -6700,7 +6738,10 @@
         <v>110</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>62</v>
@@ -6730,7 +6771,10 @@
         <v>110</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>62</v>
@@ -6760,7 +6804,10 @@
         <v>110</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>62</v>
@@ -6790,7 +6837,10 @@
         <v>110</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>62</v>
@@ -6817,7 +6867,10 @@
         <v>0</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>62</v>
@@ -6843,7 +6896,10 @@
         <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>62</v>
@@ -6858,10 +6914,10 @@
         <v>3</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K147" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -6872,7 +6928,10 @@
         <v>0</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>62</v>
@@ -6899,7 +6958,10 @@
         <v>0</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>62</v>
@@ -6926,7 +6988,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>62</v>
@@ -6956,7 +7021,10 @@
         <v>110</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>62</v>
@@ -6983,7 +7051,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>62</v>
@@ -7014,6 +7085,9 @@
       <c r="D153" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E153" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F153" s="3" t="s">
         <v>62</v>
       </c>
@@ -7027,10 +7101,10 @@
         <v>4</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K153" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -7044,7 +7118,10 @@
         <v>110</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>62</v>
@@ -7074,7 +7151,10 @@
         <v>110</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>62</v>
@@ -7104,7 +7184,10 @@
         <v>110</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>62</v>
@@ -7134,7 +7217,10 @@
         <v>110</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>62</v>
@@ -7164,7 +7250,10 @@
         <v>110</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>62</v>
@@ -7191,7 +7280,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>62</v>
@@ -7221,7 +7313,10 @@
         <v>110</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>62</v>
@@ -7248,7 +7343,10 @@
         <v>0</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>62</v>
@@ -7275,7 +7373,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>62</v>
@@ -7302,7 +7403,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>62</v>
@@ -7332,7 +7436,10 @@
         <v>110</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>62</v>
@@ -7359,7 +7466,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>62</v>
@@ -7386,7 +7496,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>62</v>
@@ -7413,7 +7526,10 @@
         <v>0</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>62</v>
@@ -7443,7 +7559,10 @@
         <v>110</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>62</v>
@@ -7473,7 +7592,10 @@
         <v>110</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>62</v>
@@ -7500,7 +7622,10 @@
         <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>62</v>
@@ -7530,7 +7655,10 @@
         <v>110</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>62</v>
@@ -7557,7 +7685,10 @@
         <v>0</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>62</v>
@@ -7584,7 +7715,10 @@
         <v>0</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>62</v>
@@ -7611,7 +7745,10 @@
         <v>0</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>62</v>
@@ -7641,7 +7778,10 @@
         <v>110</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>62</v>
@@ -7671,7 +7811,10 @@
         <v>110</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>62</v>
@@ -7698,7 +7841,10 @@
         <v>0</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>62</v>
@@ -7725,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>11</v>
@@ -7755,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>11</v>
@@ -7773,7 +7919,7 @@
         <v>-100</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K179" s="7"/>
     </row>
@@ -7785,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>11</v>
@@ -7818,7 +7964,10 @@
         <v>125</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>62</v>
@@ -7845,7 +7994,10 @@
         <v>0</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>62</v>
@@ -7872,7 +8024,10 @@
         <v>0</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>62</v>
@@ -7902,7 +8057,10 @@
         <v>125</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>62</v>
@@ -7929,7 +8087,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>62</v>
@@ -7959,7 +8120,10 @@
         <v>125</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>62</v>
@@ -7989,7 +8153,10 @@
         <v>125</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>62</v>
@@ -8019,7 +8186,10 @@
         <v>125</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>62</v>
@@ -8046,7 +8216,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>62</v>
@@ -8076,7 +8249,10 @@
         <v>125</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>62</v>
@@ -8105,7 +8281,10 @@
         <v>125</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>62</v>
@@ -8120,10 +8299,10 @@
         <v>5</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K191" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -8137,7 +8316,10 @@
         <v>125</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>62</v>
@@ -8167,7 +8349,10 @@
         <v>125</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>62</v>
@@ -8197,7 +8382,10 @@
         <v>125</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>62</v>
@@ -8227,7 +8415,10 @@
         <v>125</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>62</v>
@@ -8257,7 +8448,10 @@
         <v>125</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>62</v>
@@ -8284,7 +8478,10 @@
         <v>0</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>62</v>
@@ -8314,7 +8511,10 @@
         <v>125</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>62</v>
@@ -8341,7 +8541,10 @@
         <v>0</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>62</v>
@@ -8370,7 +8573,10 @@
         <v>125</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>62</v>
@@ -8385,10 +8591,10 @@
         <v>6</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -8399,7 +8605,10 @@
         <v>0</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>62</v>
@@ -8429,7 +8638,10 @@
         <v>125</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>62</v>
@@ -8456,7 +8668,10 @@
         <v>0</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>62</v>
@@ -8486,7 +8701,10 @@
         <v>125</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>62</v>
@@ -8513,7 +8731,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>62</v>
@@ -8543,7 +8764,10 @@
         <v>125</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>62</v>
@@ -8573,7 +8797,10 @@
         <v>125</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>62</v>
@@ -8600,7 +8827,10 @@
         <v>0</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>62</v>
@@ -8627,7 +8857,10 @@
         <v>0</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>62</v>
@@ -8658,6 +8891,9 @@
       <c r="D210" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E210" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F210" s="3" t="s">
         <v>62</v>
       </c>
@@ -8671,10 +8907,10 @@
         <v>7</v>
       </c>
       <c r="J210" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K210" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -8688,7 +8924,10 @@
         <v>125</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>62</v>
@@ -8718,7 +8957,10 @@
         <v>125</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>62</v>
@@ -8748,7 +8990,10 @@
         <v>125</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>62</v>
@@ -8778,7 +9023,10 @@
         <v>125</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>62</v>
@@ -8808,7 +9056,10 @@
         <v>125</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>62</v>
@@ -8835,7 +9086,10 @@
         <v>0</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>62</v>
@@ -8863,7 +9117,10 @@
       </c>
       <c r="C217" s="6"/>
       <c r="D217" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>62</v>
@@ -8893,7 +9150,10 @@
         <v>125</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>62</v>
@@ -8908,7 +9168,7 @@
         <v>-100</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K218" s="7"/>
     </row>
@@ -8920,7 +9180,7 @@
         <v>0</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>11</v>
@@ -8980,9 +9240,11 @@
         <v>138</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E221" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F221" s="3" t="s">
         <v>62</v>
       </c>
@@ -9008,7 +9270,10 @@
         <v>0</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>62</v>
@@ -9035,7 +9300,10 @@
         <v>0</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>62</v>
@@ -9065,7 +9333,10 @@
         <v>138</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>62</v>
@@ -9092,7 +9363,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>62</v>
@@ -9119,7 +9393,10 @@
         <v>0</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>62</v>
@@ -9149,7 +9426,10 @@
         <v>138</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>62</v>
@@ -9179,7 +9459,10 @@
         <v>138</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>62</v>
@@ -9206,7 +9489,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>62</v>
@@ -9233,7 +9519,10 @@
         <v>0</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>62</v>
@@ -9263,7 +9552,10 @@
         <v>138</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>62</v>
@@ -9290,7 +9582,10 @@
         <v>0</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>62</v>
@@ -9320,7 +9615,10 @@
         <v>138</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>62</v>
@@ -9350,7 +9648,10 @@
         <v>138</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>62</v>
@@ -9380,7 +9681,10 @@
         <v>138</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>62</v>
@@ -9407,7 +9711,10 @@
         <v>0</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>62</v>
@@ -9436,7 +9743,10 @@
         <v>138</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>62</v>
@@ -9451,10 +9761,10 @@
         <v>8</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K237" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
@@ -9468,7 +9778,10 @@
         <v>138</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>62</v>
@@ -9498,7 +9811,10 @@
         <v>138</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>62</v>
@@ -9528,7 +9844,10 @@
         <v>138</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>62</v>
@@ -9560,6 +9879,9 @@
       <c r="D241" s="3" t="s">
         <v>142</v>
       </c>
+      <c r="E241" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F241" s="3" t="s">
         <v>62</v>
       </c>
@@ -9588,7 +9910,10 @@
         <v>138</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>62</v>
@@ -9618,7 +9943,10 @@
         <v>138</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>62</v>
@@ -9648,7 +9976,10 @@
         <v>138</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>62</v>
@@ -9675,7 +10006,10 @@
         <v>0</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>62</v>
@@ -9705,7 +10039,10 @@
         <v>138</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>62</v>
@@ -9732,7 +10069,10 @@
         <v>0</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F247" s="3" t="s">
         <v>62</v>
@@ -9761,7 +10101,10 @@
         <v>138</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F248" s="3" t="s">
         <v>62</v>
@@ -9776,10 +10119,10 @@
         <v>9</v>
       </c>
       <c r="J248" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -9790,7 +10133,10 @@
         <v>0</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F249" s="3" t="s">
         <v>62</v>
@@ -9817,7 +10163,10 @@
         <v>0</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>62</v>
@@ -9844,7 +10193,10 @@
         <v>0</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F251" s="3" t="s">
         <v>62</v>
@@ -9874,7 +10226,10 @@
         <v>138</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F252" s="3" t="s">
         <v>62</v>
@@ -9904,7 +10259,10 @@
         <v>138</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>62</v>
@@ -9931,7 +10289,10 @@
         <v>0</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>62</v>
@@ -9958,7 +10319,10 @@
         <v>0</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>62</v>
@@ -9987,7 +10351,10 @@
         <v>138</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F256" s="3" t="s">
         <v>62</v>
@@ -10002,10 +10369,10 @@
         <v>10</v>
       </c>
       <c r="J256" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K256" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
@@ -10019,7 +10386,10 @@
         <v>138</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>62</v>
@@ -10049,7 +10419,10 @@
         <v>138</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>62</v>
@@ -10077,7 +10450,10 @@
       </c>
       <c r="C259" s="6"/>
       <c r="D259" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F259" s="3" t="s">
         <v>62</v>
@@ -10104,7 +10480,10 @@
         <v>0</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F260" s="3" t="s">
         <v>62</v>
@@ -10134,7 +10513,10 @@
         <v>138</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>62</v>
@@ -10164,7 +10546,10 @@
         <v>138</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F262" s="3" t="s">
         <v>62</v>
@@ -10194,7 +10579,10 @@
         <v>138</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>62</v>
@@ -10224,7 +10612,10 @@
         <v>138</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F264" s="3" t="s">
         <v>62</v>
@@ -10251,7 +10642,10 @@
         <v>0</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>62</v>
@@ -10278,7 +10672,10 @@
         <v>0</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>62</v>
@@ -10308,7 +10705,10 @@
         <v>138</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F267" s="3" t="s">
         <v>62</v>
@@ -10335,7 +10735,10 @@
         <v>0</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>62</v>
@@ -10362,7 +10765,10 @@
         <v>0</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>62</v>
@@ -10389,7 +10795,10 @@
         <v>0</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F270" s="3" t="s">
         <v>62</v>
@@ -10419,7 +10828,10 @@
         <v>138</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>62</v>
@@ -10446,7 +10858,10 @@
         <v>0</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>62</v>
@@ -10473,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>11</v>
@@ -10530,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E275" s="3" t="s">
         <v>11</v>
@@ -10560,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>11</v>
@@ -10590,7 +11005,7 @@
         <v>0</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E277" s="3" t="s">
         <v>11</v>
@@ -10608,7 +11023,7 @@
         <v>-100</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K277" s="7"/>
     </row>
@@ -10675,7 +11090,7 @@
         <v>0</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>11</v>
@@ -10705,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>11</v>
@@ -10817,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="D285" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>11</v>
@@ -10847,7 +11262,7 @@
         <v>0</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>11</v>
@@ -10876,28 +11291,28 @@
         <v>0</v>
       </c>
       <c r="D287" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G287" s="1">
+        <v>0</v>
+      </c>
+      <c r="H287" s="7">
+        <v>-100</v>
+      </c>
+      <c r="I287" s="7">
+        <v>11</v>
+      </c>
+      <c r="J287" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E287" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G287" s="1">
-        <v>0</v>
-      </c>
-      <c r="H287" s="7">
-        <v>-100</v>
-      </c>
-      <c r="I287" s="7">
-        <v>11</v>
-      </c>
-      <c r="J287" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="K287" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -10941,6 +11356,9 @@
       <c r="D289" s="7" t="s">
         <v>108</v>
       </c>
+      <c r="E289" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F289" s="3" t="s">
         <v>62</v>
       </c>
@@ -10965,7 +11383,10 @@
         <v>0</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>62</v>
@@ -10980,10 +11401,10 @@
         <v>12</v>
       </c>
       <c r="J290" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K290" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -10997,7 +11418,10 @@
         <v>110</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>62</v>
@@ -11024,9 +11448,11 @@
         <v>0</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="E292" s="4"/>
+        <v>315</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F292" s="3" t="s">
         <v>62</v>
       </c>
@@ -11055,7 +11481,10 @@
         <v>110</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>62</v>
@@ -11085,7 +11514,10 @@
         <v>110</v>
       </c>
       <c r="D294" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>62</v>
@@ -11112,7 +11544,10 @@
         <v>0</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>62</v>
@@ -11139,7 +11574,10 @@
         <v>0</v>
       </c>
       <c r="D296" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>62</v>
@@ -11166,10 +11604,13 @@
         <v>0</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D297" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F297" s="3" t="s">
         <v>62</v>
@@ -11196,10 +11637,13 @@
         <v>0</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D298" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F298" s="3" t="s">
         <v>62</v>
@@ -11226,10 +11670,13 @@
         <v>0</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D299" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>62</v>
@@ -11259,7 +11706,10 @@
         <v>110</v>
       </c>
       <c r="D300" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>62</v>
@@ -11289,7 +11739,10 @@
         <v>110</v>
       </c>
       <c r="D301" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>62</v>
@@ -11316,10 +11769,13 @@
         <v>0</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D302" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>62</v>
@@ -11349,7 +11805,10 @@
         <v>110</v>
       </c>
       <c r="D303" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>62</v>
@@ -11376,7 +11835,10 @@
         <v>0</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>62</v>
@@ -11403,7 +11865,10 @@
         <v>0</v>
       </c>
       <c r="D305" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>62</v>
@@ -11433,7 +11898,10 @@
         <v>110</v>
       </c>
       <c r="D306" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>62</v>
@@ -11460,7 +11928,10 @@
         <v>0</v>
       </c>
       <c r="D307" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>62</v>
@@ -11487,7 +11958,10 @@
         <v>0</v>
       </c>
       <c r="D308" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F308" s="3" t="s">
         <v>62</v>
@@ -11517,7 +11991,10 @@
         <v>110</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>62</v>
@@ -11544,7 +12021,10 @@
         <v>0</v>
       </c>
       <c r="D310" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>62</v>
@@ -11571,7 +12051,10 @@
         <v>0</v>
       </c>
       <c r="D311" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>62</v>
@@ -11598,7 +12081,10 @@
         <v>0</v>
       </c>
       <c r="D312" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F312" s="3" t="s">
         <v>62</v>
@@ -11628,7 +12114,10 @@
         <v>110</v>
       </c>
       <c r="D313" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>62</v>
@@ -11655,7 +12144,10 @@
         <v>0</v>
       </c>
       <c r="D314" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>62</v>
@@ -11684,7 +12176,10 @@
         <v>110</v>
       </c>
       <c r="D315" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F315" s="3" t="s">
         <v>62</v>
@@ -11699,10 +12194,10 @@
         <v>13</v>
       </c>
       <c r="J315" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K315" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.3">
@@ -11716,7 +12211,10 @@
         <v>110</v>
       </c>
       <c r="D316" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>62</v>
@@ -11746,7 +12244,10 @@
         <v>110</v>
       </c>
       <c r="D317" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>62</v>
@@ -11776,7 +12277,10 @@
         <v>110</v>
       </c>
       <c r="D318" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>62</v>
@@ -11806,7 +12310,10 @@
         <v>110</v>
       </c>
       <c r="D319" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>62</v>
@@ -11832,7 +12339,10 @@
         <v>0</v>
       </c>
       <c r="D320" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>62</v>
@@ -11847,10 +12357,10 @@
         <v>14</v>
       </c>
       <c r="J320" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K320" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.3">
@@ -11864,7 +12374,10 @@
         <v>110</v>
       </c>
       <c r="D321" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>62</v>
@@ -11894,7 +12407,10 @@
         <v>110</v>
       </c>
       <c r="D322" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>62</v>
@@ -11924,7 +12440,10 @@
         <v>110</v>
       </c>
       <c r="D323" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>62</v>
@@ -11951,7 +12470,10 @@
         <v>0</v>
       </c>
       <c r="D324" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>62</v>
@@ -11979,7 +12501,10 @@
       </c>
       <c r="C325" s="6"/>
       <c r="D325" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>62</v>
@@ -12006,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="D326" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>11</v>
@@ -12036,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="D327" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>11</v>
@@ -12054,7 +12579,7 @@
         <v>-100</v>
       </c>
       <c r="J327" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K327" s="7"/>
     </row>
@@ -12096,7 +12621,10 @@
         <v>125</v>
       </c>
       <c r="D329" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>62</v>
@@ -12122,7 +12650,10 @@
         <v>0</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F330" s="3" t="s">
         <v>62</v>
@@ -12137,10 +12668,10 @@
         <v>15</v>
       </c>
       <c r="J330" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K330" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.3">
@@ -12154,7 +12685,10 @@
         <v>125</v>
       </c>
       <c r="D331" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>62</v>
@@ -12184,7 +12718,10 @@
         <v>125</v>
       </c>
       <c r="D332" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>62</v>
@@ -12214,7 +12751,10 @@
         <v>125</v>
       </c>
       <c r="D333" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F333" s="3" t="s">
         <v>62</v>
@@ -12241,7 +12781,10 @@
         <v>0</v>
       </c>
       <c r="D334" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F334" s="3" t="s">
         <v>62</v>
@@ -12268,7 +12811,10 @@
         <v>0</v>
       </c>
       <c r="D335" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F335" s="3" t="s">
         <v>62</v>
@@ -12298,7 +12844,10 @@
         <v>125</v>
       </c>
       <c r="D336" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F336" s="3" t="s">
         <v>62</v>
@@ -12328,7 +12877,10 @@
         <v>125</v>
       </c>
       <c r="D337" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>62</v>
@@ -12355,7 +12907,10 @@
         <v>0</v>
       </c>
       <c r="D338" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>62</v>
@@ -12382,7 +12937,10 @@
         <v>0</v>
       </c>
       <c r="D339" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F339" s="3" t="s">
         <v>62</v>
@@ -12412,7 +12970,10 @@
         <v>125</v>
       </c>
       <c r="D340" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F340" s="3" t="s">
         <v>62</v>
@@ -12439,7 +13000,10 @@
         <v>0</v>
       </c>
       <c r="D341" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F341" s="3" t="s">
         <v>62</v>
@@ -12469,7 +13033,10 @@
         <v>125</v>
       </c>
       <c r="D342" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F342" s="3" t="s">
         <v>62</v>
@@ -12499,7 +13066,10 @@
         <v>125</v>
       </c>
       <c r="D343" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>62</v>
@@ -12526,7 +13096,10 @@
         <v>0</v>
       </c>
       <c r="D344" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F344" s="3" t="s">
         <v>62</v>
@@ -12553,7 +13126,10 @@
         <v>0</v>
       </c>
       <c r="D345" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F345" s="3" t="s">
         <v>62</v>
@@ -12580,7 +13156,10 @@
         <v>0</v>
       </c>
       <c r="D346" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F346" s="3" t="s">
         <v>62</v>
@@ -12607,7 +13186,10 @@
         <v>0</v>
       </c>
       <c r="D347" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F347" s="3" t="s">
         <v>62</v>
@@ -12634,7 +13216,10 @@
         <v>0</v>
       </c>
       <c r="D348" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F348" s="3" t="s">
         <v>62</v>
@@ -12661,7 +13246,10 @@
         <v>0</v>
       </c>
       <c r="D349" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F349" s="3" t="s">
         <v>62</v>
@@ -12691,7 +13279,10 @@
         <v>125</v>
       </c>
       <c r="D350" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F350" s="3" t="s">
         <v>62</v>
@@ -12718,7 +13309,10 @@
         <v>0</v>
       </c>
       <c r="D351" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F351" s="3" t="s">
         <v>62</v>
@@ -12748,7 +13342,10 @@
         <v>125</v>
       </c>
       <c r="D352" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F352" s="3" t="s">
         <v>62</v>
@@ -12778,7 +13375,10 @@
         <v>125</v>
       </c>
       <c r="D353" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F353" s="3" t="s">
         <v>62</v>
@@ -12805,7 +13405,10 @@
         <v>0</v>
       </c>
       <c r="D354" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F354" s="3" t="s">
         <v>62</v>
@@ -12832,7 +13435,10 @@
         <v>0</v>
       </c>
       <c r="D355" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F355" s="3" t="s">
         <v>62</v>
@@ -12862,7 +13468,10 @@
         <v>125</v>
       </c>
       <c r="D356" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F356" s="3" t="s">
         <v>62</v>
@@ -12889,7 +13498,10 @@
         <v>0</v>
       </c>
       <c r="D357" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F357" s="3" t="s">
         <v>62</v>
@@ -12918,7 +13530,10 @@
         <v>125</v>
       </c>
       <c r="D358" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>62</v>
@@ -12933,10 +13548,10 @@
         <v>16</v>
       </c>
       <c r="J358" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K358" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.3">
@@ -12950,7 +13565,10 @@
         <v>125</v>
       </c>
       <c r="D359" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F359" s="3" t="s">
         <v>62</v>
@@ -12980,7 +13598,10 @@
         <v>125</v>
       </c>
       <c r="D360" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F360" s="3" t="s">
         <v>62</v>
@@ -13010,7 +13631,10 @@
         <v>125</v>
       </c>
       <c r="D361" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F361" s="3" t="s">
         <v>62</v>
@@ -13040,7 +13664,10 @@
         <v>125</v>
       </c>
       <c r="D362" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F362" s="3" t="s">
         <v>62</v>
@@ -13070,7 +13697,10 @@
         <v>125</v>
       </c>
       <c r="D363" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F363" s="3" t="s">
         <v>62</v>
@@ -13100,7 +13730,10 @@
         <v>125</v>
       </c>
       <c r="D364" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F364" s="3" t="s">
         <v>62</v>
@@ -13127,7 +13760,10 @@
         <v>0</v>
       </c>
       <c r="D365" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F365" s="3" t="s">
         <v>62</v>
@@ -13156,7 +13792,10 @@
         <v>125</v>
       </c>
       <c r="D366" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F366" s="3" t="s">
         <v>62</v>
@@ -13171,10 +13810,10 @@
         <v>17</v>
       </c>
       <c r="J366" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K366" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
@@ -13188,7 +13827,10 @@
         <v>125</v>
       </c>
       <c r="D367" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F367" s="3" t="s">
         <v>62</v>
@@ -13217,7 +13859,10 @@
         <v>125</v>
       </c>
       <c r="D368" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F368" s="3" t="s">
         <v>62</v>
@@ -13246,7 +13891,10 @@
         <v>125</v>
       </c>
       <c r="D369" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F369" s="3" t="s">
         <v>62</v>
@@ -13273,7 +13921,10 @@
       </c>
       <c r="C370" s="6"/>
       <c r="D370" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F370" s="3" t="s">
         <v>62</v>
@@ -13299,7 +13950,10 @@
         <v>0</v>
       </c>
       <c r="D371" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F371" s="3" t="s">
         <v>62</v>
@@ -13325,7 +13979,7 @@
         <v>0</v>
       </c>
       <c r="D372" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>11</v>
@@ -13343,7 +13997,7 @@
         <v>-100</v>
       </c>
       <c r="J372" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
@@ -13383,7 +14037,10 @@
         <v>138</v>
       </c>
       <c r="D374" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F374" s="3" t="s">
         <v>62</v>
@@ -13409,7 +14066,10 @@
         <v>0</v>
       </c>
       <c r="D375" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>62</v>
@@ -13424,10 +14084,10 @@
         <v>18</v>
       </c>
       <c r="J375" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K375" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
@@ -13441,7 +14101,10 @@
         <v>138</v>
       </c>
       <c r="D376" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F376" s="3" t="s">
         <v>62</v>
@@ -13470,7 +14133,10 @@
         <v>138</v>
       </c>
       <c r="D377" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F377" s="3" t="s">
         <v>62</v>
@@ -13499,7 +14165,10 @@
         <v>138</v>
       </c>
       <c r="D378" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F378" s="3" t="s">
         <v>62</v>
@@ -13525,7 +14194,10 @@
         <v>0</v>
       </c>
       <c r="D379" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>62</v>
@@ -13551,7 +14223,10 @@
         <v>0</v>
       </c>
       <c r="D380" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>62</v>
@@ -13580,7 +14255,10 @@
         <v>138</v>
       </c>
       <c r="D381" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F381" s="3" t="s">
         <v>62</v>
@@ -13606,7 +14284,10 @@
         <v>0</v>
       </c>
       <c r="D382" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F382" s="3" t="s">
         <v>62</v>
@@ -13632,7 +14313,10 @@
         <v>0</v>
       </c>
       <c r="D383" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>62</v>
@@ -13661,7 +14345,10 @@
         <v>138</v>
       </c>
       <c r="D384" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>62</v>
@@ -13687,7 +14374,10 @@
         <v>0</v>
       </c>
       <c r="D385" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F385" s="3" t="s">
         <v>62</v>
@@ -13716,7 +14406,10 @@
         <v>138</v>
       </c>
       <c r="D386" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>62</v>
@@ -13745,7 +14438,10 @@
         <v>138</v>
       </c>
       <c r="D387" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F387" s="3" t="s">
         <v>62</v>
@@ -13760,10 +14456,10 @@
         <v>19</v>
       </c>
       <c r="J387" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K387" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.3">
@@ -13777,7 +14473,10 @@
         <v>138</v>
       </c>
       <c r="D388" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>62</v>
@@ -13803,7 +14502,10 @@
         <v>0</v>
       </c>
       <c r="D389" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F389" s="3" t="s">
         <v>62</v>
@@ -13832,7 +14534,10 @@
         <v>138</v>
       </c>
       <c r="D390" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>62</v>
@@ -13858,7 +14563,10 @@
         <v>0</v>
       </c>
       <c r="D391" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F391" s="3" t="s">
         <v>62</v>
@@ -13887,7 +14595,10 @@
         <v>138</v>
       </c>
       <c r="D392" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F392" s="3" t="s">
         <v>62</v>
@@ -13916,7 +14627,10 @@
         <v>138</v>
       </c>
       <c r="D393" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F393" s="3" t="s">
         <v>62</v>
@@ -13942,7 +14656,10 @@
         <v>0</v>
       </c>
       <c r="D394" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F394" s="3" t="s">
         <v>62</v>
@@ -13968,7 +14685,10 @@
         <v>0</v>
       </c>
       <c r="D395" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F395" s="3" t="s">
         <v>62</v>
@@ -13997,7 +14717,10 @@
         <v>138</v>
       </c>
       <c r="D396" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F396" s="3" t="s">
         <v>62</v>
@@ -14012,10 +14735,10 @@
         <v>20</v>
       </c>
       <c r="J396" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K396" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
@@ -14029,7 +14752,10 @@
         <v>138</v>
       </c>
       <c r="D397" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F397" s="3" t="s">
         <v>62</v>
@@ -14058,7 +14784,10 @@
         <v>138</v>
       </c>
       <c r="D398" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F398" s="3" t="s">
         <v>62</v>
@@ -14087,7 +14816,10 @@
         <v>138</v>
       </c>
       <c r="D399" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F399" s="3" t="s">
         <v>62</v>
@@ -14116,7 +14848,10 @@
         <v>138</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F400" s="3" t="s">
         <v>62</v>
@@ -14142,7 +14877,10 @@
         <v>0</v>
       </c>
       <c r="D401" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F401" s="3" t="s">
         <v>62</v>
@@ -14168,7 +14906,10 @@
         <v>0</v>
       </c>
       <c r="D402" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F402" s="3" t="s">
         <v>62</v>
@@ -14194,7 +14935,10 @@
         <v>0</v>
       </c>
       <c r="D403" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>62</v>
@@ -14220,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="D404" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E404" s="3" t="s">
         <v>11</v>
@@ -14249,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="D405" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E405" s="3" t="s">
         <v>11</v>
@@ -14278,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="D406" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E406" s="3" t="s">
         <v>11</v>
@@ -14296,7 +15040,7 @@
         <v>-100</v>
       </c>
       <c r="J406" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.3">
@@ -14310,7 +15054,10 @@
         <v>110</v>
       </c>
       <c r="D407" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>62</v>
@@ -14336,7 +15083,10 @@
         <v>0</v>
       </c>
       <c r="D408" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>62</v>
@@ -14365,7 +15115,10 @@
         <v>110</v>
       </c>
       <c r="D409" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>62</v>
@@ -14391,7 +15144,10 @@
         <v>0</v>
       </c>
       <c r="D410" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>62</v>
@@ -14420,7 +15176,10 @@
         <v>110</v>
       </c>
       <c r="D411" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>62</v>
@@ -14449,7 +15208,10 @@
         <v>110</v>
       </c>
       <c r="D412" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>62</v>
@@ -14478,7 +15240,10 @@
         <v>110</v>
       </c>
       <c r="D413" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>62</v>
@@ -14507,7 +15272,10 @@
         <v>110</v>
       </c>
       <c r="D414" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F414" s="3" t="s">
         <v>62</v>
@@ -14536,7 +15304,10 @@
         <v>110</v>
       </c>
       <c r="D415" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F415" s="3" t="s">
         <v>62</v>
@@ -14565,7 +15336,10 @@
         <v>110</v>
       </c>
       <c r="D416" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F416" s="3" t="s">
         <v>62</v>
@@ -14594,7 +15368,10 @@
         <v>110</v>
       </c>
       <c r="D417" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F417" s="3" t="s">
         <v>62</v>
@@ -14623,7 +15400,10 @@
         <v>110</v>
       </c>
       <c r="D418" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F418" s="3" t="s">
         <v>62</v>
@@ -14652,7 +15432,7 @@
         <v>110</v>
       </c>
       <c r="D419" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E419" s="3" t="s">
         <v>11</v>
@@ -14684,7 +15464,7 @@
         <v>110</v>
       </c>
       <c r="D420" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>11</v>
@@ -14739,7 +15519,7 @@
         <v>0</v>
       </c>
       <c r="D422" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E422" s="3" t="s">
         <v>11</v>
@@ -14766,7 +15546,10 @@
         <v>0</v>
       </c>
       <c r="D423" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F423" s="3" t="s">
         <v>62</v>
@@ -14795,7 +15578,10 @@
         <v>125</v>
       </c>
       <c r="D424" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F424" s="3" t="s">
         <v>62</v>
@@ -14821,7 +15607,10 @@
         <v>0</v>
       </c>
       <c r="D425" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F425" s="3" t="s">
         <v>62</v>
@@ -14847,7 +15636,10 @@
         <v>0</v>
       </c>
       <c r="D426" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F426" s="3" t="s">
         <v>62</v>
@@ -14876,7 +15668,10 @@
         <v>125</v>
       </c>
       <c r="D427" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F427" s="3" t="s">
         <v>62</v>
@@ -14905,7 +15700,10 @@
         <v>125</v>
       </c>
       <c r="D428" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F428" s="3" t="s">
         <v>62</v>
@@ -14931,7 +15729,10 @@
         <v>0</v>
       </c>
       <c r="D429" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F429" s="3" t="s">
         <v>62</v>
@@ -14960,7 +15761,7 @@
         <v>125</v>
       </c>
       <c r="D430" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E430" s="3" t="s">
         <v>11</v>
@@ -14992,7 +15793,7 @@
         <v>125</v>
       </c>
       <c r="D431" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E431" s="3" t="s">
         <v>11</v>
@@ -15048,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="D433" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E433" s="3" t="s">
         <v>11</v>
@@ -15078,7 +15879,10 @@
         <v>138</v>
       </c>
       <c r="D434" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F434" s="3" t="s">
         <v>62</v>
@@ -15104,7 +15908,10 @@
         <v>0</v>
       </c>
       <c r="D435" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F435" s="3" t="s">
         <v>62</v>
@@ -15133,7 +15940,10 @@
         <v>138</v>
       </c>
       <c r="D436" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F436" s="3" t="s">
         <v>62</v>
@@ -15159,7 +15969,10 @@
         <v>0</v>
       </c>
       <c r="D437" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F437" s="3" t="s">
         <v>62</v>
@@ -15188,7 +16001,10 @@
         <v>138</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F438" s="3" t="s">
         <v>62</v>
@@ -15214,7 +16030,10 @@
         <v>0</v>
       </c>
       <c r="D439" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F439" s="3" t="s">
         <v>62</v>
@@ -15243,7 +16062,10 @@
         <v>138</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F440" s="3" t="s">
         <v>62</v>
@@ -15272,7 +16094,10 @@
         <v>138</v>
       </c>
       <c r="D441" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>62</v>
@@ -15298,7 +16123,10 @@
         <v>0</v>
       </c>
       <c r="D442" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F442" s="3" t="s">
         <v>62</v>
@@ -15327,7 +16155,10 @@
         <v>138</v>
       </c>
       <c r="D443" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F443" s="3" t="s">
         <v>62</v>
@@ -15356,7 +16187,7 @@
         <v>138</v>
       </c>
       <c r="D444" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E444" s="3" t="s">
         <v>11</v>
@@ -15388,7 +16219,7 @@
         <v>138</v>
       </c>
       <c r="D445" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E445" s="3" t="s">
         <v>11</v>
@@ -15443,7 +16274,7 @@
         <v>0</v>
       </c>
       <c r="D447" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>11</v>
@@ -15469,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="D448" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E448" s="3" t="s">
         <v>11</v>
@@ -15498,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="D449" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E449" s="3" t="s">
         <v>11</v>
@@ -15527,7 +16358,7 @@
         <v>0</v>
       </c>
       <c r="D450" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E450" s="3" t="s">
         <v>11</v>
@@ -15556,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="D451" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E451" s="3" t="s">
         <v>11</v>
@@ -15585,7 +16416,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E452" s="3" t="s">
         <v>11</v>
@@ -15614,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="D453" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E453" s="3" t="s">
         <v>11</v>
@@ -15643,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="D454" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>11</v>
@@ -15687,7 +16518,7 @@
         <v>-100</v>
       </c>
       <c r="J455" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.3">

--- a/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/SecondHeeHeeMotGa/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwlr\OneDrive\바탕 화면\hihisecondproject\SecondHeeHeeMotGa\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D9129E-C94F-4E1A-8AA2-AE2BD9D2E4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B037FD-4174-409E-8E22-B6B37E0DDA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="486">
   <si>
     <t>tweenType</t>
   </si>
@@ -1941,6 +1941,13 @@
   </si>
   <si>
     <t>"이제 진짜 안볼 사람인데 뭐.."</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround/Black</t>
+  </si>
+  <si>
+    <t>Dialogue3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2299,8 +2306,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I460" sqref="I460"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3853,9 +3860,7 @@
       <c r="J50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>234</v>
-      </c>
+      <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
@@ -4661,13 +4666,13 @@
         <v>0</v>
       </c>
       <c r="H75" s="1">
-        <v>74</v>
+        <v>-100</v>
       </c>
       <c r="I75" s="1">
         <v>-100</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>11</v>
+        <v>485</v>
       </c>
       <c r="K75" s="7"/>
     </row>
@@ -5161,9 +5166,7 @@
       <c r="B92" s="1">
         <v>0</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>337</v>
-      </c>
+      <c r="C92" s="6"/>
       <c r="D92" s="3" t="s">
         <v>109</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>11</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>62</v>
+        <v>484</v>
       </c>
       <c r="G121" s="1">
         <v>0</v>
@@ -6092,11 +6095,9 @@
         <v>1</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>234</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="K121" s="6"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
